--- a/时间管理.xlsx
+++ b/时间管理.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="46">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -75,6 +75,138 @@
   </si>
   <si>
     <t>日语</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>住处-韦伯豪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>韦伯豪-住处</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>住处-东四十条</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整理国际站上产品的最新采购价和定价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册了163和gmail邮箱；下载了印象笔记</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东四十条 漫咖啡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日语</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斗地主</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>睡觉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吃饭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吃午饭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东四十条-住处</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外出;整理家务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>思考工作方向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整理国际站上图美的产品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S讲怎么整理产品与行业、产品线、产品组合；国际站应该怎么经营</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>睡觉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完善产品分类；联系昊杰、精鹰刀具供应商，获取报价和画册；在Github上传(同步)文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国际站细分组，重新布局</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学算数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>住处-什刹海</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给阿里网站调色；汇报网站完善情况；发现当下的网站只是个独立网站不能运营</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>睡觉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吃饭+休息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>思考接下来的工作应该怎么做，排版阿里线上产品应该导出的信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导出阿里网站上的产品信息;更新了网站上的产品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>住处-机场-增城</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>考日语</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同大舅母倾计交流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>舅父公司，问舅父建材供应商同打听图美消息；回宿舍收拾东西</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增城-机场-住处</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>详情见工作记录</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -127,7 +259,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -142,6 +274,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -423,17 +564,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U30"/>
+  <dimension ref="A1:U41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="36.5" customWidth="1"/>
+    <col min="13" max="13" width="14.875" customWidth="1"/>
     <col min="17" max="17" width="10.125" customWidth="1"/>
+    <col min="19" max="19" width="15" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.15">
@@ -497,7 +641,7 @@
       <c r="T1" t="s">
         <v>6</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="U1" s="7" t="s">
         <v>5</v>
       </c>
     </row>
@@ -518,6 +662,9 @@
       <c r="E2" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="M2" t="s">
+        <v>18</v>
+      </c>
       <c r="N2" s="2">
         <v>0.55138888888888882</v>
       </c>
@@ -528,6 +675,9 @@
         <f>O2-N2</f>
         <v>1.4583333333333393E-2</v>
       </c>
+      <c r="Q2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
@@ -568,6 +718,9 @@
       <c r="L3" s="2">
         <f>K3-J3</f>
         <v>5.208333333333337E-2</v>
+      </c>
+      <c r="M3" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="27" x14ac:dyDescent="0.15">
@@ -608,134 +761,726 @@
         <f>K4-J4</f>
         <v>4.7916666666666718E-2</v>
       </c>
+      <c r="M4" t="s">
+        <v>14</v>
+      </c>
+      <c r="N4" s="2">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="P4" s="2"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>42735</v>
       </c>
+      <c r="B5" s="2">
+        <v>0.4375</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="2">
+        <f t="shared" ref="H5:H7" si="1">G5-F5</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0.39930555555555558</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="L5" s="2">
+        <f>K5-J5</f>
+        <v>2.7777777777777735E-2</v>
+      </c>
+      <c r="M5" t="s">
+        <v>15</v>
+      </c>
+      <c r="O5" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="P5" s="2">
+        <f>O5-N4</f>
+        <v>0.36805555555555558</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A6" s="1">
-        <v>42736</v>
+      <c r="A6" s="1"/>
+      <c r="B6" s="2">
+        <v>0.54861111111111105</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.67361111111111116</v>
+      </c>
+      <c r="D6" s="2">
+        <f>C6-B6</f>
+        <v>0.12500000000000011</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0.68402777777777779</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0.71527777777777779</v>
+      </c>
+      <c r="H6" s="2">
+        <f t="shared" si="1"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="I6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="N6" s="2">
+        <v>0.72222222222222221</v>
+      </c>
+      <c r="O6" s="2">
+        <v>0.79861111111111116</v>
+      </c>
+      <c r="P6" s="2">
+        <f>O6-N5</f>
+        <v>0.79861111111111116</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>22</v>
+      </c>
+      <c r="R6" s="2">
+        <v>0.875</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
-        <v>42737</v>
+        <v>42736</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="F7" s="2">
+        <v>0.4375</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0.56874999999999998</v>
+      </c>
+      <c r="H7" s="2">
+        <f t="shared" si="1"/>
+        <v>0.13124999999999998</v>
+      </c>
+      <c r="I7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" s="2"/>
+      <c r="N7" s="2">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="O7" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="P7" s="2">
+        <f>O7-N7</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>21</v>
+      </c>
+      <c r="S7" s="6">
+        <v>1</v>
+      </c>
+      <c r="T7" s="2">
+        <f>S7-R6</f>
+        <v>0.125</v>
+      </c>
+      <c r="U7" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A8" s="1">
-        <v>42738</v>
+      <c r="A8" s="1"/>
+      <c r="D8" s="2"/>
+      <c r="F8" s="2">
+        <v>0.99305555555555547</v>
+      </c>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="P8" s="2">
+        <f t="shared" ref="P8:P21" si="2">O8-N8</f>
+        <v>0</v>
+      </c>
+      <c r="R8" s="2">
+        <v>0.56874999999999998</v>
+      </c>
+      <c r="S8" s="5">
+        <v>0.99305555555555547</v>
+      </c>
+      <c r="T8" s="2">
+        <f>S8-R8</f>
+        <v>0.42430555555555549</v>
+      </c>
+      <c r="U8" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
-        <v>42739</v>
+        <v>42737</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="G9" s="2">
+        <v>1.0138888888888888</v>
+      </c>
+      <c r="H9" s="2">
+        <f>G9-F8</f>
+        <v>2.083333333333337E-2</v>
+      </c>
+      <c r="I9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J9" s="2">
+        <v>0.39930555555555558</v>
+      </c>
+      <c r="K9" s="2">
+        <v>0.43055555555555558</v>
+      </c>
+      <c r="L9" s="2">
+        <f t="shared" ref="L9:L20" si="3">K9-J9</f>
+        <v>3.125E-2</v>
+      </c>
+      <c r="M9" t="s">
+        <v>15</v>
+      </c>
+      <c r="N9" s="2">
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="O9" s="2">
+        <v>0.34513888888888888</v>
+      </c>
+      <c r="P9" s="2">
+        <f t="shared" si="2"/>
+        <v>0.33124999999999999</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A10" s="1">
-        <v>42740</v>
-      </c>
+      <c r="A10" s="1"/>
+      <c r="D10" s="2"/>
+      <c r="F10" s="2">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0.81944444444444453</v>
+      </c>
+      <c r="H10" s="2">
+        <f>G10-F10</f>
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="I10" t="s">
+        <v>12</v>
+      </c>
+      <c r="J10" s="2">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="K10" s="2">
+        <v>0.8833333333333333</v>
+      </c>
+      <c r="L10" s="2">
+        <f t="shared" si="3"/>
+        <v>2.9166666666666674E-2</v>
+      </c>
+      <c r="M10" t="s">
+        <v>24</v>
+      </c>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
+        <v>42738</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.48541666666666666</v>
+      </c>
+      <c r="D11" s="2">
+        <f t="shared" ref="D11:D19" si="4">C11-B11</f>
+        <v>9.6527777777777768E-2</v>
+      </c>
+      <c r="E11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="P11" s="2"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A12" s="1"/>
+      <c r="B12" s="2">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="D12" s="2">
+        <f t="shared" si="4"/>
+        <v>0.10416666666666674</v>
+      </c>
+      <c r="E12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="P12" s="2"/>
+    </row>
+    <row r="13" spans="1:21" ht="27" x14ac:dyDescent="0.15">
+      <c r="A13" s="1"/>
+      <c r="B13" s="2">
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0.81944444444444453</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" si="4"/>
+        <v>4.1666666666666741E-2</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="P13" s="2"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A14" s="1"/>
+      <c r="B14" s="2">
+        <v>0.9375</v>
+      </c>
+      <c r="C14" s="2">
+        <v>1.0277777777777779</v>
+      </c>
+      <c r="D14" s="2">
+        <f t="shared" si="4"/>
+        <v>9.0277777777777901E-2</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="N14" s="2">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="O14" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="P14" s="2">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A15" s="1">
+        <v>42739</v>
+      </c>
+      <c r="B15" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D15" s="2">
+        <f t="shared" si="4"/>
+        <v>0.125</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="P15" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A16" s="1"/>
+      <c r="B16" s="2">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" t="s">
+        <v>32</v>
+      </c>
+      <c r="H16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="N16" s="2">
+        <v>0.50694444444444442</v>
+      </c>
+      <c r="O16" s="2">
+        <v>0.5708333333333333</v>
+      </c>
+      <c r="P16" s="2">
+        <f t="shared" si="2"/>
+        <v>6.3888888888888884E-2</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" ht="27" x14ac:dyDescent="0.15">
+      <c r="A17" s="1">
+        <v>42740</v>
+      </c>
+      <c r="B17" s="2">
+        <v>0.4375</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0.74236111111111114</v>
+      </c>
+      <c r="D17" s="2">
+        <f t="shared" si="4"/>
+        <v>0.30486111111111114</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F17" s="2">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="G17" s="2">
+        <v>0.86111111111111116</v>
+      </c>
+      <c r="H17" s="2">
+        <f t="shared" ref="H17:H22" si="5">G17-F17</f>
+        <v>9.027777777777779E-2</v>
+      </c>
+      <c r="I17" t="s">
+        <v>33</v>
+      </c>
+      <c r="J17" s="2">
+        <v>0.38472222222222219</v>
+      </c>
+      <c r="K17" s="2">
+        <v>0.4375</v>
+      </c>
+      <c r="L17" s="2">
+        <f t="shared" si="3"/>
+        <v>5.2777777777777812E-2</v>
+      </c>
+      <c r="M17" t="s">
+        <v>34</v>
+      </c>
+      <c r="P17" s="2"/>
+    </row>
+    <row r="18" spans="1:21" ht="27" x14ac:dyDescent="0.15">
+      <c r="A18" s="1"/>
+      <c r="B18" s="2">
+        <v>0.94444444444444453</v>
+      </c>
+      <c r="C18" s="2">
+        <v>6.25E-2</v>
+      </c>
+      <c r="D18" s="2">
+        <f t="shared" si="4"/>
+        <v>-0.88194444444444453</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="P18" s="2"/>
+    </row>
+    <row r="19" spans="1:21" ht="27" x14ac:dyDescent="0.15">
+      <c r="A19" s="1">
         <v>42741</v>
       </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A12" s="1">
+      <c r="B19" s="2">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0.875</v>
+      </c>
+      <c r="D19" s="2">
+        <f t="shared" si="4"/>
+        <v>0.52083333333333326</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="N19" s="2">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="O19" s="2">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="P19" s="2">
+        <f t="shared" si="2"/>
+        <v>0.27083333333333337</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A20" s="1">
         <v>42742</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A13" s="1">
+      <c r="H20" s="2"/>
+      <c r="J20" s="2">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="K20" s="2">
+        <v>0.79861111111111116</v>
+      </c>
+      <c r="L20" s="2">
+        <f t="shared" si="3"/>
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="M20" t="s">
+        <v>40</v>
+      </c>
+      <c r="N20" s="2">
+        <v>0</v>
+      </c>
+      <c r="O20" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="P20" s="2">
+        <f t="shared" si="2"/>
+        <v>0.3125</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A21" s="1"/>
+      <c r="H21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="N21" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A22" s="1">
         <v>42743</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A14" s="1">
+      <c r="F22" s="2">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="G22" s="2">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="H22" s="2">
+        <f t="shared" si="5"/>
+        <v>0.10416666666666674</v>
+      </c>
+      <c r="I22" t="s">
+        <v>41</v>
+      </c>
+      <c r="O22" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="P22" s="2">
+        <f>O22-N21</f>
+        <v>0.3125</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>21</v>
+      </c>
+      <c r="R22" s="2">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="S22" s="2">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="T22" s="2">
+        <f>S22-R22</f>
+        <v>0.16666666666666674</v>
+      </c>
+      <c r="U22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A23" s="1"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="N23" s="2">
+        <v>0.99305555555555547</v>
+      </c>
+      <c r="P23" s="2"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="2"/>
+      <c r="T23" s="2"/>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A24" s="1">
         <v>42744</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A15" s="1">
+      <c r="J24" s="2">
+        <v>0.59027777777777779</v>
+      </c>
+      <c r="O24" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="P24" s="2"/>
+      <c r="Q24" t="s">
+        <v>21</v>
+      </c>
+      <c r="R24" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="S24" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="T24" s="2">
+        <f>S24-R24</f>
+        <v>0.125</v>
+      </c>
+      <c r="U24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A25" s="1">
         <v>42745</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A16" s="1">
+      <c r="B25" s="2">
+        <v>0.63541666666666663</v>
+      </c>
+      <c r="C25" s="2">
+        <v>0.86597222222222225</v>
+      </c>
+      <c r="D25" s="2">
+        <f>C25-B25</f>
+        <v>0.23055555555555562</v>
+      </c>
+      <c r="E25" t="s">
+        <v>45</v>
+      </c>
+      <c r="K25" s="2">
+        <v>6.8749999999999992E-2</v>
+      </c>
+      <c r="M25" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A26" s="1"/>
+      <c r="K26" s="2"/>
+      <c r="N26" s="2">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="O26" s="2">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="P26" s="2">
+        <f>O26-N26</f>
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A27" s="1">
         <v>42746</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A17" s="1">
+      <c r="N27" s="2"/>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A28" s="1">
         <v>42747</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A18" s="1">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A29" s="1">
         <v>42748</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A19" s="1">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A30" s="1">
         <v>42749</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A20" s="1">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A31" s="1">
         <v>42750</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A21" s="1">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A32" s="1">
         <v>42751</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A22" s="1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A33" s="1">
         <v>42752</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A23" s="1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A34" s="1">
         <v>42753</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A24" s="1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A35" s="1">
         <v>42754</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A25" s="1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A36" s="1">
         <v>42755</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A26" s="1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A37" s="1">
         <v>42756</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A27" s="1">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A38" s="1">
         <v>42757</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A28" s="1">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A39" s="1">
         <v>42758</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A29" s="1">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A40" s="1">
         <v>42759</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A30" s="1">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A41" s="1">
         <v>42760</v>
       </c>
     </row>

--- a/时间管理.xlsx
+++ b/时间管理.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="52">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -207,6 +207,30 @@
   </si>
   <si>
     <t>详情见工作记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看微博</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>休息，吃饭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>住处-茶馆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>茶馆-S住处</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西直门-住处</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P图，更换E站有问题照片、客服照片及名字还有标题栏颜色</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -564,10 +588,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U41"/>
+  <dimension ref="A1:U46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E35" sqref="A35:XFD35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -848,8 +872,8 @@
         <v>0.79861111111111116</v>
       </c>
       <c r="P6" s="2">
-        <f>O6-N5</f>
-        <v>0.79861111111111116</v>
+        <f>O6-N6</f>
+        <v>7.6388888888888951E-2</v>
       </c>
       <c r="Q6" t="s">
         <v>22</v>
@@ -911,7 +935,7 @@
       <c r="H8" s="2"/>
       <c r="L8" s="2"/>
       <c r="P8" s="2">
-        <f t="shared" ref="P8:P21" si="2">O8-N8</f>
+        <f t="shared" ref="P8:P20" si="2">O8-N8</f>
         <v>0</v>
       </c>
       <c r="R8" s="2">
@@ -950,7 +974,7 @@
         <v>0.43055555555555558</v>
       </c>
       <c r="L9" s="2">
-        <f t="shared" ref="L9:L20" si="3">K9-J9</f>
+        <f t="shared" ref="L9:L32" si="3">K9-J9</f>
         <v>3.125E-2</v>
       </c>
       <c r="M9" t="s">
@@ -1195,10 +1219,7 @@
       <c r="C18" s="2">
         <v>6.25E-2</v>
       </c>
-      <c r="D18" s="2">
-        <f t="shared" si="4"/>
-        <v>-0.88194444444444453</v>
-      </c>
+      <c r="D18" s="2"/>
       <c r="E18" s="4" t="s">
         <v>38</v>
       </c>
@@ -1302,6 +1323,7 @@
       <c r="I22" t="s">
         <v>41</v>
       </c>
+      <c r="L22" s="2"/>
       <c r="O22" s="2">
         <v>0.3125</v>
       </c>
@@ -1331,6 +1353,7 @@
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
+      <c r="L23" s="2"/>
       <c r="N23" s="2">
         <v>0.99305555555555547</v>
       </c>
@@ -1346,6 +1369,7 @@
       <c r="J24" s="2">
         <v>0.59027777777777779</v>
       </c>
+      <c r="L24" s="2"/>
       <c r="O24" s="2">
         <v>0.3125</v>
       </c>
@@ -1387,13 +1411,16 @@
       <c r="K25" s="2">
         <v>6.8749999999999992E-2</v>
       </c>
+      <c r="L25" s="2"/>
       <c r="M25" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A26" s="1"/>
+      <c r="D26" s="2"/>
       <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
       <c r="N26" s="2">
         <v>0.14583333333333334</v>
       </c>
@@ -1412,75 +1439,282 @@
       <c r="A27" s="1">
         <v>42746</v>
       </c>
-      <c r="N27" s="2"/>
+      <c r="B27" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="C27" s="2">
+        <v>0.875</v>
+      </c>
+      <c r="D27" s="2">
+        <f t="shared" ref="D27:D34" si="6">C27-B27</f>
+        <v>0.5</v>
+      </c>
+      <c r="E27" t="s">
+        <v>45</v>
+      </c>
+      <c r="F27" s="2">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="G27" s="2">
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="I27" t="s">
+        <v>46</v>
+      </c>
+      <c r="L27" s="2"/>
+      <c r="N27" s="2">
+        <v>6.25E-2</v>
+      </c>
+      <c r="O27" s="2">
+        <v>0.34027777777777773</v>
+      </c>
+      <c r="P27" s="2">
+        <f>O27-N27</f>
+        <v>0.27777777777777773</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A28" s="1">
-        <v>42747</v>
+      <c r="A28" s="1"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="N28" s="2">
+        <v>0.80763888888888891</v>
+      </c>
+      <c r="O28" s="2">
+        <v>0.84930555555555554</v>
+      </c>
+      <c r="P28" s="2">
+        <f>O28-N28</f>
+        <v>4.166666666666663E-2</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A29" s="1">
-        <v>42748</v>
+      <c r="A29" s="1"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="N29" s="2">
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="O29" s="2">
+        <v>0.34236111111111112</v>
+      </c>
+      <c r="P29" s="2">
+        <f>O29-N29</f>
+        <v>0.30902777777777779</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
+        <v>42747</v>
+      </c>
+      <c r="B30" s="2">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C30" s="2">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="D30" s="2">
+        <f t="shared" si="6"/>
+        <v>0.5</v>
+      </c>
+      <c r="E30" t="s">
+        <v>45</v>
+      </c>
+      <c r="J30" s="2">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="K30" s="2">
+        <v>0.4375</v>
+      </c>
+      <c r="L30" s="2">
+        <f t="shared" si="3"/>
+        <v>4.1666666666666685E-2</v>
+      </c>
+      <c r="M30" t="s">
+        <v>48</v>
+      </c>
+      <c r="N30" s="2">
+        <v>0.9916666666666667</v>
+      </c>
+      <c r="O30" s="2">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="P30" s="2"/>
+      <c r="Q30" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A31" s="1"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="J31" s="2">
+        <v>0.61111111111111105</v>
+      </c>
+      <c r="K31" s="2">
+        <v>0.64930555555555558</v>
+      </c>
+      <c r="L31" s="2">
+        <f t="shared" si="3"/>
+        <v>3.8194444444444531E-2</v>
+      </c>
+      <c r="M31" t="s">
+        <v>49</v>
+      </c>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A32" s="1"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="J32" s="2">
+        <v>0.73611111111111116</v>
+      </c>
+      <c r="K32" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="L32" s="2">
+        <f t="shared" si="3"/>
+        <v>9.722222222222221E-2</v>
+      </c>
+      <c r="M32" t="s">
+        <v>50</v>
+      </c>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2"/>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A33" s="1">
+        <v>42748</v>
+      </c>
+      <c r="B33" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="C33" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="D33" s="2">
+        <f t="shared" si="6"/>
+        <v>0.375</v>
+      </c>
+      <c r="E33" t="s">
+        <v>45</v>
+      </c>
+      <c r="N33" s="2">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="O33" s="2">
+        <v>0.54861111111111105</v>
+      </c>
+      <c r="P33" s="2">
+        <f t="shared" ref="P33" si="7">O33-N33</f>
+        <v>2.7777777777777679E-2</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" ht="27" x14ac:dyDescent="0.15">
+      <c r="A34" s="1"/>
+      <c r="B34" s="2">
+        <v>0.8618055555555556</v>
+      </c>
+      <c r="C34" s="2">
+        <v>0.98611111111111116</v>
+      </c>
+      <c r="D34" s="2">
+        <f t="shared" si="6"/>
+        <v>0.12430555555555556</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A35" s="1">
         <v>42749</v>
       </c>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A31" s="1">
+      <c r="N35" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A36" s="1">
         <v>42750</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A32" s="1">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A37" s="1">
         <v>42751</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A33" s="1">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A38" s="1">
         <v>42752</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A34" s="1">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A39" s="1">
         <v>42753</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A35" s="1">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A40" s="1">
         <v>42754</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A36" s="1">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A41" s="1">
         <v>42755</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A37" s="1">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A42" s="1">
         <v>42756</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A38" s="1">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A43" s="1">
         <v>42757</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A39" s="1">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A44" s="1">
         <v>42758</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A40" s="1">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A45" s="1">
         <v>42759</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A41" s="1">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A46" s="1">
         <v>42760</v>
       </c>
     </row>

--- a/时间管理.xlsx
+++ b/时间管理.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="70">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -230,7 +230,78 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>P图，更换E站有问题照片、客服照片及名字还有标题栏颜色</t>
+    <t>P图，更换E站有问题照片、客服照片及名字还有标题栏颜色;查看了E站、国际站和速卖通的基本信息，总结区别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>做午饭吃饭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.了解中国制造、敦煌网、环球资源、中国供应商、E-Bay、亚马逊和易趣 2.筛选ISLE符合产品线的供应商，一共108家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>睡觉</t>
+  </si>
+  <si>
+    <t>午饭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>做家务，拖地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看微博</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>练英语口语</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下载口袋记账开始用手机记录自己的帐；Atimelogger手机随时记录时间；沪江词典记日语单词</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>住处-S住处</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>午饭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三里屯吃饭，国贸天阶，大裤衩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国贸-住处</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>去工行大钟寺东路支行咨询社保扣费问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询48家D.PES参展商主营产品信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S住处-京仪大厦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>京仪大厦-住处</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高天鹏拿苹果来，在家见他</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>熬粥，dinner</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -283,7 +354,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -307,6 +378,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -588,10 +662,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U46"/>
+  <dimension ref="A1:U54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E35" sqref="A35:XFD35"/>
+    <sheetView tabSelected="1" topLeftCell="H40" workbookViewId="0">
+      <selection activeCell="S46" sqref="S46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -599,9 +673,9 @@
     <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="36.5" customWidth="1"/>
     <col min="13" max="13" width="14.875" customWidth="1"/>
-    <col min="17" max="17" width="10.125" customWidth="1"/>
-    <col min="19" max="19" width="15" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.625" customWidth="1"/>
+    <col min="17" max="17" width="12.5" customWidth="1"/>
+    <col min="19" max="19" width="11.375" customWidth="1"/>
+    <col min="21" max="21" width="19.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.15">
@@ -1415,6 +1489,7 @@
       <c r="M25" t="s">
         <v>44</v>
       </c>
+      <c r="T25" s="2"/>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A26" s="1"/>
@@ -1434,6 +1509,7 @@
       <c r="Q26" t="s">
         <v>21</v>
       </c>
+      <c r="T26" s="2"/>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
@@ -1446,7 +1522,7 @@
         <v>0.875</v>
       </c>
       <c r="D27" s="2">
-        <f t="shared" ref="D27:D34" si="6">C27-B27</f>
+        <f t="shared" ref="D27:D48" si="6">C27-B27</f>
         <v>0.5</v>
       </c>
       <c r="E27" t="s">
@@ -1475,6 +1551,7 @@
       <c r="Q27" t="s">
         <v>21</v>
       </c>
+      <c r="T27" s="2"/>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A28" s="1"/>
@@ -1497,6 +1574,7 @@
       <c r="Q28" t="s">
         <v>47</v>
       </c>
+      <c r="T28" s="2"/>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A29" s="1"/>
@@ -1519,6 +1597,7 @@
       <c r="Q29" t="s">
         <v>21</v>
       </c>
+      <c r="T29" s="2"/>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
@@ -1560,6 +1639,7 @@
       <c r="Q30" t="s">
         <v>21</v>
       </c>
+      <c r="T30" s="2"/>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A31" s="1"/>
@@ -1582,6 +1662,7 @@
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
+      <c r="T31" s="2"/>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A32" s="1"/>
@@ -1604,8 +1685,9 @@
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" s="2"/>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="T32" s="2"/>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A33" s="1">
         <v>42748</v>
       </c>
@@ -1629,14 +1711,15 @@
         <v>0.54861111111111105</v>
       </c>
       <c r="P33" s="2">
-        <f t="shared" ref="P33" si="7">O33-N33</f>
+        <f t="shared" ref="P33:P35" si="7">O33-N33</f>
         <v>2.7777777777777679E-2</v>
       </c>
       <c r="Q33" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="34" spans="1:17" ht="27" x14ac:dyDescent="0.15">
+      <c r="T33" s="2"/>
+    </row>
+    <row r="34" spans="1:21" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A34" s="1"/>
       <c r="B34" s="2">
         <v>0.8618055555555556</v>
@@ -1654,67 +1737,457 @@
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
       <c r="P34" s="2"/>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="T34" s="2"/>
+    </row>
+    <row r="35" spans="1:21" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A35" s="1">
         <v>42749</v>
       </c>
+      <c r="B35" s="2">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="C35" s="2">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="D35" s="2">
+        <f t="shared" si="6"/>
+        <v>0.4375</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="N35" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A36" s="1">
+      <c r="O35" s="2">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="P35" s="2">
+        <f t="shared" si="7"/>
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>21</v>
+      </c>
+      <c r="T35" s="2"/>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A36" s="1"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="4"/>
+      <c r="N36" s="2">
+        <v>0.43055555555555558</v>
+      </c>
+      <c r="O36" s="2">
+        <v>0.51388888888888895</v>
+      </c>
+      <c r="P36" s="2">
+        <f t="shared" ref="P36" si="8">O36-N36</f>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>52</v>
+      </c>
+      <c r="R36" s="2"/>
+      <c r="S36" s="2"/>
+      <c r="T36" s="2"/>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A37" s="1">
         <v>42750</v>
       </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A37" s="1">
+      <c r="D37" s="2"/>
+      <c r="F37" s="2">
+        <v>0.85972222222222217</v>
+      </c>
+      <c r="G37" s="2">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="H37" s="2">
+        <f>G37-F37</f>
+        <v>3.6111111111111205E-2</v>
+      </c>
+      <c r="I37" t="s">
+        <v>58</v>
+      </c>
+      <c r="N37" s="2">
+        <v>0</v>
+      </c>
+      <c r="O37" s="2">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="P37" s="2">
+        <f>O37-N37</f>
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>54</v>
+      </c>
+      <c r="T37" s="2"/>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A38" s="1"/>
+      <c r="D38" s="2"/>
+      <c r="N38" s="2">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="O38" s="2">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="P38" s="2">
+        <f t="shared" ref="P38:P47" si="9">O38-N38</f>
+        <v>6.2500000000000056E-2</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>55</v>
+      </c>
+      <c r="R38" s="2">
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="S38" s="2">
+        <v>0.64930555555555558</v>
+      </c>
+      <c r="T38" s="2">
+        <f t="shared" ref="T38" si="10">S38-R38</f>
+        <v>9.375E-2</v>
+      </c>
+      <c r="U38" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A39" s="1"/>
+      <c r="D39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
+      <c r="P39" s="2"/>
+      <c r="R39" s="2">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="S39" s="2">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="T39" s="2">
+        <f>S39-R39</f>
+        <v>0.125</v>
+      </c>
+      <c r="U39" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A40" s="1"/>
+      <c r="D40" s="2"/>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
+      <c r="P40" s="2"/>
+      <c r="R40" s="2">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="S40" s="2">
+        <v>0.99930555555555556</v>
+      </c>
+      <c r="T40" s="2">
+        <f>S40-R40</f>
+        <v>0.10347222222222219</v>
+      </c>
+      <c r="U40" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="1">
         <v>42751</v>
       </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A38" s="1">
+      <c r="B41" s="2">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="C41" s="2">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D41" s="2">
+        <f t="shared" si="6"/>
+        <v>0.27083333333333326</v>
+      </c>
+      <c r="E41" t="s">
+        <v>45</v>
+      </c>
+      <c r="J41" s="2">
+        <v>0.45416666666666666</v>
+      </c>
+      <c r="K41" s="2">
+        <v>0.49305555555555558</v>
+      </c>
+      <c r="L41" s="2">
+        <f>K41-J41</f>
+        <v>3.8888888888888917E-2</v>
+      </c>
+      <c r="M41" t="s">
+        <v>60</v>
+      </c>
+      <c r="N41" s="2">
+        <v>0</v>
+      </c>
+      <c r="O41" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="P41" s="2">
+        <f t="shared" si="9"/>
+        <v>0.375</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>54</v>
+      </c>
+      <c r="T41" s="2"/>
+    </row>
+    <row r="42" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="1"/>
+      <c r="D42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="N42" s="2">
+        <v>0.49652777777777773</v>
+      </c>
+      <c r="O42" s="2">
+        <v>0.51388888888888895</v>
+      </c>
+      <c r="P42" s="2">
+        <f t="shared" si="9"/>
+        <v>1.7361111111111216E-2</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>61</v>
+      </c>
+      <c r="T42" s="2">
+        <f t="shared" ref="T42:T47" si="11">S42-R42</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A43" s="1">
         <v>42752</v>
       </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A39" s="1">
+      <c r="B43" s="2">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="C43" s="2">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="D43" s="2"/>
+      <c r="E43" t="s">
+        <v>45</v>
+      </c>
+      <c r="J43" s="2">
+        <v>0.4548611111111111</v>
+      </c>
+      <c r="K43" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="L43" s="2">
+        <f t="shared" ref="L43:L47" si="12">K43-J43</f>
+        <v>4.5138888888888895E-2</v>
+      </c>
+      <c r="M43" t="s">
+        <v>60</v>
+      </c>
+      <c r="N43" s="2">
+        <v>0</v>
+      </c>
+      <c r="O43" s="2">
+        <v>0.37083333333333335</v>
+      </c>
+      <c r="P43" s="2">
+        <f t="shared" si="9"/>
+        <v>0.37083333333333335</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>54</v>
+      </c>
+      <c r="R43" s="2">
+        <v>0.77430555555555547</v>
+      </c>
+      <c r="S43" s="2">
+        <v>0.92361111111111116</v>
+      </c>
+      <c r="T43" s="2">
+        <f t="shared" si="11"/>
+        <v>0.14930555555555569</v>
+      </c>
+      <c r="U43" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A44" s="1"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="J44" s="2">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="K44" s="2">
+        <v>0.46875</v>
+      </c>
+      <c r="L44" s="2">
+        <f t="shared" si="12"/>
+        <v>4.1666666666666685E-2</v>
+      </c>
+      <c r="M44" t="s">
+        <v>63</v>
+      </c>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
+      <c r="P44" s="2"/>
+      <c r="R44" s="2"/>
+      <c r="S44" s="2"/>
+      <c r="T44" s="2"/>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A45" s="1">
         <v>42753</v>
       </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A40" s="1">
+      <c r="B45" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="C45" s="2">
+        <v>0.6875</v>
+      </c>
+      <c r="D45" s="2">
+        <f t="shared" si="6"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="E45" t="s">
+        <v>64</v>
+      </c>
+      <c r="J45" s="2">
+        <v>0.44722222222222219</v>
+      </c>
+      <c r="K45" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="L45" s="2">
+        <f t="shared" si="12"/>
+        <v>5.2777777777777812E-2</v>
+      </c>
+      <c r="M45" t="s">
+        <v>60</v>
+      </c>
+      <c r="P45" s="2"/>
+      <c r="T45" s="2"/>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A46" s="1"/>
+      <c r="B46" s="2">
+        <v>0.34861111111111115</v>
+      </c>
+      <c r="C46" s="2">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D46" s="2">
+        <f t="shared" si="6"/>
+        <v>6.8055555555555536E-2</v>
+      </c>
+      <c r="E46" t="s">
+        <v>65</v>
+      </c>
+      <c r="J46" s="2">
+        <v>0.12847222222222224</v>
+      </c>
+      <c r="K46" s="2">
+        <v>0.15277777777777776</v>
+      </c>
+      <c r="L46" s="2">
+        <f t="shared" si="12"/>
+        <v>2.4305555555555525E-2</v>
+      </c>
+      <c r="M46" t="s">
+        <v>66</v>
+      </c>
+      <c r="N46" s="2">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="O46" s="2">
+        <v>0.84722222222222221</v>
+      </c>
+      <c r="P46" s="2">
+        <f>O46-N46</f>
+        <v>0.11805555555555558</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>69</v>
+      </c>
+      <c r="R46" s="2">
+        <v>0.80208333333333337</v>
+      </c>
+      <c r="S46" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="T46" s="2">
+        <f>S46-R46</f>
+        <v>3.125E-2</v>
+      </c>
+      <c r="U46" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A47" s="1"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="J47" s="2">
+        <v>0.69444444444444453</v>
+      </c>
+      <c r="K47" s="2">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="L47" s="2">
+        <f t="shared" si="12"/>
+        <v>3.4722222222222099E-2</v>
+      </c>
+      <c r="M47" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A48" s="1">
         <v>42754</v>
       </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A41" s="1">
+      <c r="D48" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A49" s="1">
         <v>42755</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A42" s="1">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A50" s="1">
         <v>42756</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A43" s="1">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A51" s="1">
         <v>42757</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A44" s="1">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A52" s="1">
         <v>42758</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A45" s="1">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A53" s="1">
         <v>42759</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A46" s="1">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A54" s="1">
         <v>42760</v>
       </c>
     </row>

--- a/时间管理.xlsx
+++ b/时间管理.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="79">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -302,6 +302,42 @@
   </si>
   <si>
     <t>熬粥，dinner</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>住处-知春路B出口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南山滑雪场，滑雪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>知春路B出口-南山</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南山-知春路B出口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>知春路B出口-住处</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打印申请邀请函材料，和Kwaku联系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按产品分类整理二月份参展商名单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>住处-绿房子-沃尔玛-住处</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>考察绿房子医院环境；沃尔玛购物</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -662,17 +698,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U54"/>
+  <dimension ref="A1:U72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H40" workbookViewId="0">
-      <selection activeCell="S46" sqref="S46"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="C63" sqref="C63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="36.5" customWidth="1"/>
-    <col min="13" max="13" width="14.875" customWidth="1"/>
+    <col min="13" max="13" width="23.125" customWidth="1"/>
     <col min="17" max="17" width="12.5" customWidth="1"/>
     <col min="19" max="19" width="11.375" customWidth="1"/>
     <col min="21" max="21" width="19.125" customWidth="1"/>
@@ -1522,7 +1558,7 @@
         <v>0.875</v>
       </c>
       <c r="D27" s="2">
-        <f t="shared" ref="D27:D48" si="6">C27-B27</f>
+        <f t="shared" ref="D27:D54" si="6">C27-B27</f>
         <v>0.5</v>
       </c>
       <c r="E27" t="s">
@@ -1837,7 +1873,7 @@
         <v>0.52083333333333337</v>
       </c>
       <c r="P38" s="2">
-        <f t="shared" ref="P38:P47" si="9">O38-N38</f>
+        <f t="shared" ref="P38:P43" si="9">O38-N38</f>
         <v>6.2500000000000056E-2</v>
       </c>
       <c r="Q38" t="s">
@@ -1962,7 +1998,7 @@
         <v>61</v>
       </c>
       <c r="T42" s="2">
-        <f t="shared" ref="T42:T47" si="11">S42-R42</f>
+        <f t="shared" ref="T42:T43" si="11">S42-R42</f>
         <v>0</v>
       </c>
     </row>
@@ -1987,7 +2023,7 @@
         <v>0.5</v>
       </c>
       <c r="L43" s="2">
-        <f t="shared" ref="L43:L47" si="12">K43-J43</f>
+        <f t="shared" ref="L43:L54" si="12">K43-J43</f>
         <v>4.5138888888888895E-2</v>
       </c>
       <c r="M43" t="s">
@@ -2151,44 +2187,286 @@
       <c r="M47" t="s">
         <v>67</v>
       </c>
+      <c r="P47" s="2"/>
+      <c r="T47" s="2"/>
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A48" s="1">
         <v>42754</v>
       </c>
-      <c r="D48" s="2">
+      <c r="D48" s="2"/>
+      <c r="J48" s="2">
+        <v>0.30902777777777779</v>
+      </c>
+      <c r="K48" s="2">
+        <v>0.33680555555555558</v>
+      </c>
+      <c r="L48" s="2">
+        <f t="shared" si="12"/>
+        <v>2.777777777777779E-2</v>
+      </c>
+      <c r="M48" t="s">
+        <v>70</v>
+      </c>
+      <c r="P48" s="2"/>
+      <c r="R48" s="2">
+        <v>0.4375</v>
+      </c>
+      <c r="S48" s="2">
+        <v>0.67708333333333337</v>
+      </c>
+      <c r="T48" s="2">
+        <f t="shared" ref="T48" si="13">S48-R48</f>
+        <v>0.23958333333333337</v>
+      </c>
+      <c r="U48" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A49" s="1"/>
+      <c r="D49" s="2"/>
+      <c r="J49" s="2">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="K49" s="2">
+        <v>0.40625</v>
+      </c>
+      <c r="L49" s="2">
+        <f t="shared" si="12"/>
+        <v>5.2083333333333315E-2</v>
+      </c>
+      <c r="M49" t="s">
+        <v>72</v>
+      </c>
+      <c r="P49" s="2"/>
+      <c r="R49" s="2"/>
+      <c r="S49" s="2"/>
+      <c r="T49" s="2"/>
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A50" s="1"/>
+      <c r="D50" s="2"/>
+      <c r="J50" s="2">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="K50" s="2">
+        <v>0.77430555555555547</v>
+      </c>
+      <c r="L50" s="2">
+        <f t="shared" si="12"/>
+        <v>4.513888888888884E-2</v>
+      </c>
+      <c r="M50" t="s">
+        <v>73</v>
+      </c>
+      <c r="P50" s="2"/>
+      <c r="R50" s="2"/>
+      <c r="S50" s="2"/>
+      <c r="T50" s="2"/>
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A51" s="1"/>
+      <c r="D51" s="2"/>
+      <c r="J51" s="2">
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="K51" s="2">
+        <v>0.8125</v>
+      </c>
+      <c r="L51" s="2">
+        <f t="shared" si="12"/>
+        <v>3.472222222222221E-2</v>
+      </c>
+      <c r="M51" t="s">
+        <v>74</v>
+      </c>
+      <c r="N51" s="2"/>
+      <c r="P51" s="2"/>
+      <c r="R51" s="2"/>
+      <c r="S51" s="2"/>
+      <c r="T51" s="2"/>
+    </row>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A52" s="1">
+        <v>42755</v>
+      </c>
+      <c r="B52" s="2">
+        <v>0.4375</v>
+      </c>
+      <c r="C52" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="D52" s="2">
         <f t="shared" si="6"/>
+        <v>0.3125</v>
+      </c>
+      <c r="E52" t="s">
+        <v>75</v>
+      </c>
+      <c r="L52" s="2"/>
+      <c r="N52" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A49" s="1">
-        <v>42755</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A50" s="1">
+      <c r="O52" s="2">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="P52" s="2">
+        <f t="shared" ref="P52" si="14">O52-N52</f>
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A53" s="1"/>
+      <c r="D53" s="2"/>
+      <c r="L53" s="2"/>
+      <c r="N53" s="2">
+        <v>0.98263888888888884</v>
+      </c>
+      <c r="O53" s="2"/>
+      <c r="P53" s="2"/>
+    </row>
+    <row r="54" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="1">
         <v>42756</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A51" s="1">
+      <c r="B54" s="2">
+        <v>0.8125</v>
+      </c>
+      <c r="C54" s="2">
+        <v>0.93402777777777779</v>
+      </c>
+      <c r="D54" s="2">
+        <f t="shared" si="6"/>
+        <v>0.12152777777777779</v>
+      </c>
+      <c r="E54" t="s">
+        <v>76</v>
+      </c>
+      <c r="J54" s="2">
+        <v>0.38125000000000003</v>
+      </c>
+      <c r="K54" s="2">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="L54" s="2">
+        <f t="shared" si="12"/>
+        <v>0.13958333333333334</v>
+      </c>
+      <c r="M54" t="s">
+        <v>77</v>
+      </c>
+      <c r="O54" s="2">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>54</v>
+      </c>
+      <c r="R54" s="2">
+        <v>0.38125000000000003</v>
+      </c>
+      <c r="S54" s="2">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="T54" s="2">
+        <f t="shared" ref="T54" si="15">S54-R54</f>
+        <v>0.13958333333333334</v>
+      </c>
+      <c r="U54" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A55" s="1">
         <v>42757</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A52" s="1">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A56" s="1">
         <v>42758</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A53" s="1">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A57" s="1">
         <v>42759</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A54" s="1">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A58" s="1">
         <v>42760</v>
+      </c>
+    </row>
+    <row r="59" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A59" s="1">
+        <v>42761</v>
+      </c>
+    </row>
+    <row r="60" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A60" s="1">
+        <v>42762</v>
+      </c>
+    </row>
+    <row r="61" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A61" s="1">
+        <v>42763</v>
+      </c>
+    </row>
+    <row r="62" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A62" s="1">
+        <v>42764</v>
+      </c>
+    </row>
+    <row r="63" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A63" s="1">
+        <v>42765</v>
+      </c>
+    </row>
+    <row r="64" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A64" s="1">
+        <v>42766</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A65" s="1">
+        <v>42767</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A66" s="1">
+        <v>42768</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A67" s="1">
+        <v>42769</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A68" s="1">
+        <v>42770</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A69" s="1">
+        <v>42771</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A70" s="1">
+        <v>42772</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A71" s="1">
+        <v>42773</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A72" s="1">
+        <v>42774</v>
       </c>
     </row>
   </sheetData>

--- a/时间管理.xlsx
+++ b/时间管理.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="81">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -338,6 +338,14 @@
   </si>
   <si>
     <t>考察绿房子医院环境；沃尔玛购物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吃饭，休息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>了解95家参展商产品价格</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -700,8 +708,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="C63" sqref="C63"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="E55" sqref="E55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1558,7 +1566,7 @@
         <v>0.875</v>
       </c>
       <c r="D27" s="2">
-        <f t="shared" ref="D27:D54" si="6">C27-B27</f>
+        <f t="shared" ref="D27:D62" si="6">C27-B27</f>
         <v>0.5</v>
       </c>
       <c r="E27" t="s">
@@ -2383,40 +2391,107 @@
       <c r="A55" s="1">
         <v>42757</v>
       </c>
+      <c r="B55" s="2">
+        <v>0.40833333333333338</v>
+      </c>
+      <c r="C55" s="2">
+        <v>0.89722222222222225</v>
+      </c>
+      <c r="D55" s="2">
+        <f t="shared" si="6"/>
+        <v>0.48888888888888887</v>
+      </c>
+      <c r="E55" t="s">
+        <v>80</v>
+      </c>
+      <c r="N55" s="2">
+        <v>1.4583333333333332E-2</v>
+      </c>
+      <c r="O55" s="2">
+        <v>0.3444444444444445</v>
+      </c>
+      <c r="P55" s="2">
+        <f>O55-N55</f>
+        <v>0.32986111111111116</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="56" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A56" s="1">
         <v>42758</v>
       </c>
+      <c r="D56" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N56" s="2">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="O56" s="2">
+        <v>0.81597222222222221</v>
+      </c>
+      <c r="P56" s="2">
+        <f>O56-N56</f>
+        <v>4.513888888888884E-2</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="57" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A57" s="1">
         <v>42759</v>
       </c>
+      <c r="D57" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="58" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A58" s="1">
         <v>42760</v>
       </c>
+      <c r="D58" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="59" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A59" s="1">
         <v>42761</v>
       </c>
+      <c r="D59" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="60" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A60" s="1">
         <v>42762</v>
       </c>
+      <c r="D60" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="61" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A61" s="1">
         <v>42763</v>
       </c>
+      <c r="D61" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="62" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A62" s="1">
         <v>42764</v>
+      </c>
+      <c r="D62" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:21" x14ac:dyDescent="0.15">

--- a/时间管理.xlsx
+++ b/时间管理.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="114">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -403,6 +403,78 @@
   </si>
   <si>
     <t>组合产品，还没组合展示材料的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上网买衣服</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习X知识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>做饭 看欢乐颂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>住处-景山公园-住处</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>住处-地坛公园-住处</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吃饭 看欢乐颂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询北京去广州机票、火车票和酒店价格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看计算机概论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询加纳大使馆春节上班时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改E站产品价格，改为区间范围</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搞卫生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弄吃的，放松</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S住处-漫咖啡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>住处-北邮漫咖啡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北邮漫咖啡-工体漫咖啡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东四十条-住处</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>住处-京仪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>见工作记录</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -760,16 +832,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U78"/>
+  <dimension ref="A1:U106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="Q71" sqref="Q71"/>
+    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
+      <selection activeCell="S96" sqref="S96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="36.5" customWidth="1"/>
+    <col min="9" max="9" width="12.875" customWidth="1"/>
     <col min="13" max="13" width="23.125" customWidth="1"/>
     <col min="17" max="17" width="12.5" customWidth="1"/>
     <col min="19" max="19" width="11.375" customWidth="1"/>
@@ -2100,7 +2175,7 @@
         <v>0.5</v>
       </c>
       <c r="L44" s="2">
-        <f t="shared" ref="L44:L60" si="12">K44-J44</f>
+        <f t="shared" ref="L44:L92" si="12">K44-J44</f>
         <v>4.5138888888888895E-2</v>
       </c>
       <c r="M44" t="s">
@@ -2449,7 +2524,7 @@
         <v>0.52083333333333337</v>
       </c>
       <c r="T55" s="2">
-        <f t="shared" ref="T55:T66" si="15">S55-R55</f>
+        <f t="shared" ref="T55:T74" si="15">S55-R55</f>
         <v>0.13958333333333334</v>
       </c>
       <c r="U55" t="s">
@@ -2604,7 +2679,7 @@
         <v>0.36041666666666666</v>
       </c>
       <c r="P60" s="2">
-        <f t="shared" ref="P60:P68" si="16">O60-N60</f>
+        <f t="shared" ref="P60:P73" si="16">O60-N60</f>
         <v>0.33888888888888891</v>
       </c>
       <c r="Q60" t="s">
@@ -2629,7 +2704,10 @@
       <c r="D61" s="2"/>
       <c r="J61" s="2"/>
       <c r="K61" s="2"/>
-      <c r="L61" s="2"/>
+      <c r="L61" s="2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
       <c r="P61" s="2"/>
@@ -2652,7 +2730,10 @@
       <c r="D62" s="2"/>
       <c r="J62" s="2"/>
       <c r="K62" s="2"/>
-      <c r="L62" s="2"/>
+      <c r="L62" s="2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
       <c r="P62" s="2"/>
@@ -2675,7 +2756,10 @@
       <c r="D63" s="2"/>
       <c r="J63" s="2"/>
       <c r="K63" s="2"/>
-      <c r="L63" s="2"/>
+      <c r="L63" s="2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
       <c r="P63" s="2"/>
@@ -2710,6 +2794,10 @@
       <c r="E64" t="s">
         <v>91</v>
       </c>
+      <c r="L64" s="2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
       <c r="N64" s="2">
         <v>2.0833333333333332E-2</v>
       </c>
@@ -2754,6 +2842,10 @@
       <c r="E65" t="s">
         <v>92</v>
       </c>
+      <c r="L65" s="2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
       <c r="N65" s="2">
         <v>2.0833333333333332E-2</v>
       </c>
@@ -2789,6 +2881,10 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="D66" s="2"/>
+      <c r="L66" s="2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
       <c r="P66" s="2"/>
       <c r="R66" s="2">
         <v>0.72916666666666663</v>
@@ -2815,6 +2911,10 @@
       <c r="E67" t="s">
         <v>93</v>
       </c>
+      <c r="L67" s="2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
       <c r="N67" s="2">
         <v>0.1388888888888889</v>
       </c>
@@ -2828,6 +2928,10 @@
       <c r="Q67" t="s">
         <v>51</v>
       </c>
+      <c r="T67" s="2">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="68" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A68" s="1">
@@ -2846,6 +2950,10 @@
       <c r="E68" t="s">
         <v>95</v>
       </c>
+      <c r="L68" s="2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
       <c r="N68" s="2">
         <v>5.9027777777777783E-2</v>
       </c>
@@ -2859,55 +2967,863 @@
       <c r="Q68" t="s">
         <v>51</v>
       </c>
+      <c r="T68" s="2">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="69" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A69" s="1">
         <v>42765</v>
       </c>
+      <c r="J69" s="2">
+        <v>0.58680555555555558</v>
+      </c>
+      <c r="K69" s="2">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="L69" s="2">
+        <f t="shared" si="12"/>
+        <v>0.18402777777777779</v>
+      </c>
+      <c r="M69" t="s">
+        <v>100</v>
+      </c>
+      <c r="N69" s="2">
+        <v>5.0694444444444452E-2</v>
+      </c>
+      <c r="O69" s="2">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="P69" s="2">
+        <f t="shared" si="16"/>
+        <v>0.40069444444444446</v>
+      </c>
+      <c r="Q69" t="s">
+        <v>51</v>
+      </c>
+      <c r="T69" s="2">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="70" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A70" s="1">
         <v>42766</v>
       </c>
+      <c r="J70" s="2">
+        <v>0.63194444444444442</v>
+      </c>
+      <c r="K70" s="2">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="L70" s="2">
+        <f t="shared" si="12"/>
+        <v>0.13888888888888895</v>
+      </c>
+      <c r="M70" t="s">
+        <v>99</v>
+      </c>
+      <c r="N70" s="2">
+        <v>6.805555555555555E-2</v>
+      </c>
+      <c r="O70" s="2">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="P70" s="2">
+        <f t="shared" si="16"/>
+        <v>0.40416666666666673</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>51</v>
+      </c>
+      <c r="T70" s="2">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="71" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A71" s="1">
         <v>42767</v>
       </c>
+      <c r="F71" s="2">
+        <v>0.70138888888888884</v>
+      </c>
+      <c r="G71" s="2">
+        <v>0.97916666666666663</v>
+      </c>
+      <c r="H71" s="2">
+        <f>G71-F71</f>
+        <v>0.27777777777777779</v>
+      </c>
+      <c r="I71" t="s">
+        <v>97</v>
+      </c>
+      <c r="L71" s="2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="N71" s="2">
+        <v>3.4722222222222224E-2</v>
+      </c>
+      <c r="O71" s="2">
+        <v>0.51388888888888895</v>
+      </c>
+      <c r="P71" s="2">
+        <f t="shared" si="16"/>
+        <v>0.47916666666666674</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>51</v>
+      </c>
+      <c r="R71" s="2">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="S71" s="2">
+        <v>0.70138888888888884</v>
+      </c>
+      <c r="T71" s="2">
+        <f t="shared" si="15"/>
+        <v>0.18055555555555547</v>
+      </c>
+      <c r="U71" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="72" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A72" s="1">
         <v>42768</v>
       </c>
+      <c r="L72" s="2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="N72" s="2">
+        <v>3.0555555555555555E-2</v>
+      </c>
+      <c r="O72" s="2">
+        <v>0.44236111111111115</v>
+      </c>
+      <c r="P72" s="2">
+        <f>O72-N72</f>
+        <v>0.41180555555555559</v>
+      </c>
+      <c r="Q72" t="s">
+        <v>51</v>
+      </c>
+      <c r="R72" s="2">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="S72" s="2">
+        <v>0.58680555555555558</v>
+      </c>
+      <c r="T72" s="2">
+        <f>S72-R72</f>
+        <v>0.1076388888888889</v>
+      </c>
+      <c r="U72" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="73" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A73" s="1">
-        <v>42769</v>
+      <c r="A73" s="1"/>
+      <c r="L73" s="2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="N73" s="2"/>
+      <c r="O73" s="2"/>
+      <c r="P73" s="2">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="R73" s="2">
+        <v>0.58680555555555558</v>
+      </c>
+      <c r="S73" s="2">
+        <v>0.70138888888888884</v>
+      </c>
+      <c r="T73" s="2">
+        <f>S73-R73</f>
+        <v>0.11458333333333326</v>
+      </c>
+      <c r="U73" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="74" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A74" s="1">
-        <v>42770</v>
+      <c r="A74" s="1"/>
+      <c r="L74" s="2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="R74" s="2">
+        <v>0.70138888888888884</v>
+      </c>
+      <c r="S74" s="2">
+        <v>0.73611111111111116</v>
+      </c>
+      <c r="T74" s="2">
+        <f t="shared" si="15"/>
+        <v>3.4722222222222321E-2</v>
+      </c>
+      <c r="U74" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="75" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A75" s="1">
-        <v>42771</v>
-      </c>
+        <v>42769</v>
+      </c>
+      <c r="B75" s="2">
+        <v>0.53194444444444444</v>
+      </c>
+      <c r="C75" s="2">
+        <v>0.6645833333333333</v>
+      </c>
+      <c r="D75" s="2">
+        <f>C75-B75</f>
+        <v>0.13263888888888886</v>
+      </c>
+      <c r="E75" t="s">
+        <v>102</v>
+      </c>
+      <c r="F75" s="2">
+        <v>0.6645833333333333</v>
+      </c>
+      <c r="L75" s="2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="N75" s="2">
+        <v>1.5277777777777777E-2</v>
+      </c>
+      <c r="O75" s="2">
+        <v>0.44375000000000003</v>
+      </c>
+      <c r="P75" s="2">
+        <f>O75-N75</f>
+        <v>0.42847222222222225</v>
+      </c>
+      <c r="Q75" t="s">
+        <v>51</v>
+      </c>
+      <c r="T75" s="2"/>
     </row>
     <row r="76" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A76" s="1">
-        <v>42772</v>
-      </c>
+        <v>42770</v>
+      </c>
+      <c r="D76" s="2">
+        <f t="shared" ref="D76:D106" si="17">C76-B76</f>
+        <v>0</v>
+      </c>
+      <c r="G76" s="2">
+        <v>7.0833333333333331E-2</v>
+      </c>
+      <c r="I76" t="s">
+        <v>103</v>
+      </c>
+      <c r="L76" s="2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="N76" s="2">
+        <v>7.0833333333333331E-2</v>
+      </c>
+      <c r="O76" s="2">
+        <v>0.4368055555555555</v>
+      </c>
+      <c r="P76" s="2">
+        <f>O76-N76</f>
+        <v>0.36597222222222214</v>
+      </c>
+      <c r="Q76" t="s">
+        <v>51</v>
+      </c>
+      <c r="T76" s="2"/>
     </row>
     <row r="77" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A77" s="1">
-        <v>42773</v>
-      </c>
+      <c r="A77" s="1"/>
+      <c r="D77" s="2">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="F77" s="2">
+        <v>0.59097222222222223</v>
+      </c>
+      <c r="G77" s="2"/>
+      <c r="L77" s="2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="T77" s="2"/>
     </row>
     <row r="78" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A78" s="1">
+        <v>42771</v>
+      </c>
+      <c r="B78" s="2">
+        <v>0.41597222222222219</v>
+      </c>
+      <c r="C78" s="2">
+        <v>0.47291666666666665</v>
+      </c>
+      <c r="D78" s="2">
+        <f t="shared" si="17"/>
+        <v>5.6944444444444464E-2</v>
+      </c>
+      <c r="E78" t="s">
+        <v>104</v>
+      </c>
+      <c r="G78" s="2">
+        <v>1.9444444444444445E-2</v>
+      </c>
+      <c r="I78" t="s">
+        <v>103</v>
+      </c>
+      <c r="L78" s="2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="N78" s="2">
+        <v>1.9444444444444445E-2</v>
+      </c>
+      <c r="O78" s="2">
+        <v>0.39930555555555558</v>
+      </c>
+      <c r="P78" s="2">
+        <f>O78-N78</f>
+        <v>0.37986111111111115</v>
+      </c>
+      <c r="Q78" t="s">
+        <v>51</v>
+      </c>
+      <c r="T78" s="2"/>
+    </row>
+    <row r="79" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A79" s="1">
+        <v>42772</v>
+      </c>
+      <c r="D79" s="2"/>
+      <c r="F79" s="2">
+        <v>0.52430555555555558</v>
+      </c>
+      <c r="G79" s="2">
+        <v>0.6875</v>
+      </c>
+      <c r="H79" s="2">
+        <f>G79-F79</f>
+        <v>0.16319444444444442</v>
+      </c>
+      <c r="I79" t="s">
+        <v>103</v>
+      </c>
+      <c r="L79" s="2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="N79" s="2">
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="O79" s="2">
+        <v>0.37986111111111115</v>
+      </c>
+      <c r="P79" s="2">
+        <f>O79-N79</f>
+        <v>0.34652777777777782</v>
+      </c>
+      <c r="Q79" t="s">
+        <v>51</v>
+      </c>
+      <c r="T79" s="2"/>
+    </row>
+    <row r="80" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A80" s="1"/>
+      <c r="D80" s="2"/>
+      <c r="F80" s="2">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="G80" s="2"/>
+      <c r="H80" s="2"/>
+      <c r="L80" s="2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="N80" s="2"/>
+      <c r="O80" s="2"/>
+      <c r="P80" s="2">
+        <f t="shared" ref="P80:P94" si="18">O80-N80</f>
+        <v>0</v>
+      </c>
+      <c r="T80" s="2"/>
+    </row>
+    <row r="81" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A81" s="1">
+        <v>42773</v>
+      </c>
+      <c r="D81" s="2"/>
+      <c r="G81" s="2">
+        <v>6.25E-2</v>
+      </c>
+      <c r="H81" s="2"/>
+      <c r="I81" t="s">
+        <v>103</v>
+      </c>
+      <c r="L81" s="2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="N81" s="2">
+        <v>6.25E-2</v>
+      </c>
+      <c r="O81" s="2">
+        <v>0.39930555555555558</v>
+      </c>
+      <c r="P81" s="2">
+        <f t="shared" si="18"/>
+        <v>0.33680555555555558</v>
+      </c>
+      <c r="Q81" t="s">
+        <v>51</v>
+      </c>
+      <c r="T81" s="2"/>
+    </row>
+    <row r="82" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A82" s="1"/>
+      <c r="D82" s="2"/>
+      <c r="F82" s="2">
+        <v>0.57430555555555551</v>
+      </c>
+      <c r="G82" s="2"/>
+      <c r="H82" s="2"/>
+      <c r="L82" s="2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="N82" s="2"/>
+      <c r="O82" s="2"/>
+      <c r="P82" s="2"/>
+      <c r="T82" s="2"/>
+    </row>
+    <row r="83" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A83" s="1">
         <v>42774</v>
+      </c>
+      <c r="D83" s="2"/>
+      <c r="G83" s="2">
+        <v>4.3055555555555562E-2</v>
+      </c>
+      <c r="H83" s="2"/>
+      <c r="I83" t="s">
+        <v>103</v>
+      </c>
+      <c r="J83" s="2">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="K83" s="2">
+        <v>0.40972222222222227</v>
+      </c>
+      <c r="L83" s="2">
+        <f t="shared" si="12"/>
+        <v>5.555555555555558E-2</v>
+      </c>
+      <c r="M83" t="s">
+        <v>57</v>
+      </c>
+      <c r="N83" s="2">
+        <v>4.3055555555555562E-2</v>
+      </c>
+      <c r="O83" s="2">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="P83" s="2">
+        <f t="shared" si="18"/>
+        <v>0.24861111111111112</v>
+      </c>
+      <c r="Q83" t="s">
+        <v>51</v>
+      </c>
+      <c r="T83" s="2"/>
+    </row>
+    <row r="84" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A84" s="1"/>
+      <c r="D84" s="2"/>
+      <c r="G84" s="2"/>
+      <c r="H84" s="2"/>
+      <c r="J84" s="2">
+        <v>0.51388888888888895</v>
+      </c>
+      <c r="K84" s="2">
+        <v>0.53125</v>
+      </c>
+      <c r="L84" s="2">
+        <f t="shared" si="12"/>
+        <v>1.7361111111111049E-2</v>
+      </c>
+      <c r="M84" t="s">
+        <v>108</v>
+      </c>
+      <c r="N84" s="2"/>
+      <c r="O84" s="2"/>
+      <c r="P84" s="2">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="T84" s="2"/>
+    </row>
+    <row r="85" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A85" s="1">
+        <v>42775</v>
+      </c>
+      <c r="L85" s="2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="N85" s="2">
+        <v>4.8611111111111112E-2</v>
+      </c>
+      <c r="O85" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="P85" s="2">
+        <f t="shared" si="18"/>
+        <v>0.3263888888888889</v>
+      </c>
+      <c r="Q85" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="86" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A86" s="1">
+        <v>42776</v>
+      </c>
+      <c r="J86" s="2">
+        <v>0.38194444444444442</v>
+      </c>
+      <c r="K86" s="2">
+        <v>0.43055555555555558</v>
+      </c>
+      <c r="L86" s="2">
+        <f t="shared" si="12"/>
+        <v>4.861111111111116E-2</v>
+      </c>
+      <c r="M86" t="s">
+        <v>109</v>
+      </c>
+      <c r="P86" s="2"/>
+    </row>
+    <row r="87" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A87" s="1"/>
+      <c r="J87" s="2">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="K87" s="2">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="L87" s="2">
+        <f t="shared" si="12"/>
+        <v>9.0277777777777735E-2</v>
+      </c>
+      <c r="M87" t="s">
+        <v>110</v>
+      </c>
+      <c r="P87" s="2"/>
+    </row>
+    <row r="88" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A88" s="1"/>
+      <c r="F88" s="2"/>
+      <c r="G88" s="2"/>
+      <c r="J88" s="2">
+        <v>0.93055555555555547</v>
+      </c>
+      <c r="K88" s="2">
+        <v>0.9784722222222223</v>
+      </c>
+      <c r="L88" s="2">
+        <f t="shared" si="12"/>
+        <v>4.7916666666666829E-2</v>
+      </c>
+      <c r="M88" t="s">
+        <v>111</v>
+      </c>
+      <c r="N88" s="2">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="O88" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="P88" s="2">
+        <f t="shared" si="18"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="Q88" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="89" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A89" s="1">
+        <v>42777</v>
+      </c>
+      <c r="B89" s="2">
+        <v>0.40833333333333338</v>
+      </c>
+      <c r="C89" s="2">
+        <v>0.49374999999999997</v>
+      </c>
+      <c r="D89" s="2">
+        <f>C89-B89</f>
+        <v>8.5416666666666585E-2</v>
+      </c>
+      <c r="E89" t="s">
+        <v>105</v>
+      </c>
+      <c r="F89" s="2">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G89" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="H89" s="2">
+        <f>G89-F89</f>
+        <v>0.16666666666666674</v>
+      </c>
+      <c r="I89" t="s">
+        <v>103</v>
+      </c>
+      <c r="L89" s="2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="N89" s="2">
+        <v>0.96944444444444444</v>
+      </c>
+      <c r="P89" s="2"/>
+      <c r="R89" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="S89" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="T89" s="2">
+        <f>S89-R89</f>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="U89" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="90" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A90" s="1">
+        <v>42778</v>
+      </c>
+      <c r="B90" s="2"/>
+      <c r="D90" s="2">
+        <f>C90-B90</f>
+        <v>0</v>
+      </c>
+      <c r="F90" s="2">
+        <v>0.50763888888888886</v>
+      </c>
+      <c r="G90" s="2">
+        <v>0.6875</v>
+      </c>
+      <c r="H90" s="2">
+        <f>G90-F90</f>
+        <v>0.17986111111111114</v>
+      </c>
+      <c r="I90" t="s">
+        <v>103</v>
+      </c>
+      <c r="L90" s="2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="O90" s="2">
+        <v>0.33680555555555558</v>
+      </c>
+      <c r="P90" s="2"/>
+      <c r="Q90" t="s">
+        <v>51</v>
+      </c>
+      <c r="R90" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="S90" s="2">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="T90" s="2">
+        <f>S90-R90</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="U90" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="91" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A91" s="1"/>
+      <c r="B91" s="2"/>
+      <c r="D91" s="2"/>
+      <c r="F91" s="2"/>
+      <c r="G91" s="2"/>
+      <c r="H91" s="2"/>
+      <c r="L91" s="2"/>
+      <c r="N91" s="2">
+        <v>0.99097222222222225</v>
+      </c>
+      <c r="O91" s="2"/>
+      <c r="P91" s="2"/>
+      <c r="R91" s="2"/>
+      <c r="S91" s="2"/>
+      <c r="T91" s="2"/>
+    </row>
+    <row r="92" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A92" s="1">
+        <v>42779</v>
+      </c>
+      <c r="B92" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="C92" s="4">
+        <v>1</v>
+      </c>
+      <c r="D92" s="2">
+        <f t="shared" si="17"/>
+        <v>0.375</v>
+      </c>
+      <c r="E92" t="s">
+        <v>113</v>
+      </c>
+      <c r="J92" s="2">
+        <v>0.39374999999999999</v>
+      </c>
+      <c r="K92" s="2">
+        <v>0.52708333333333335</v>
+      </c>
+      <c r="L92" s="2">
+        <f t="shared" si="12"/>
+        <v>0.13333333333333336</v>
+      </c>
+      <c r="M92" t="s">
+        <v>112</v>
+      </c>
+      <c r="O92" s="2">
+        <v>0.32916666666666666</v>
+      </c>
+      <c r="P92" s="2"/>
+      <c r="Q92" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="93" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A93" s="1"/>
+      <c r="D93" s="2"/>
+      <c r="J93" s="2"/>
+      <c r="K93" s="2"/>
+      <c r="L93" s="2"/>
+      <c r="P93" s="2"/>
+    </row>
+    <row r="94" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A94" s="1">
+        <v>42780</v>
+      </c>
+      <c r="B94" s="5">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C94" s="2">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D94" s="2">
+        <f t="shared" si="17"/>
+        <v>0.25</v>
+      </c>
+      <c r="E94" t="s">
+        <v>113</v>
+      </c>
+      <c r="N94" s="2">
+        <v>5.2083333333333336E-2</v>
+      </c>
+      <c r="O94" s="2">
+        <v>0.3576388888888889</v>
+      </c>
+      <c r="P94" s="2">
+        <f t="shared" si="18"/>
+        <v>0.30555555555555558</v>
+      </c>
+      <c r="Q94" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="95" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="D95" s="2">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="D96" s="2">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D97" s="2">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D98" s="2">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D99" s="2">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D100" s="2">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D101" s="2">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D102" s="2">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D103" s="2">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D104" s="2">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D105" s="2">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D106" s="2">
+        <f t="shared" si="17"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/时间管理.xlsx
+++ b/时间管理.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="114">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -835,7 +835,7 @@
   <dimension ref="A1:U106"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
-      <selection activeCell="S96" sqref="S96"/>
+      <selection activeCell="E95" sqref="E95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3755,9 +3755,21 @@
       </c>
     </row>
     <row r="95" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A95" s="1">
+        <v>42781</v>
+      </c>
+      <c r="B95" s="2">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="C95" s="2">
+        <v>0.81944444444444453</v>
+      </c>
       <c r="D95" s="2">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>0.42361111111111122</v>
+      </c>
+      <c r="E95" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="96" spans="1:21" x14ac:dyDescent="0.15">

--- a/时间管理.xlsx
+++ b/时间管理.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="114">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -834,8 +834,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
-      <selection activeCell="E95" sqref="E95"/>
+    <sheetView tabSelected="1" topLeftCell="F80" workbookViewId="0">
+      <selection activeCell="R96" sqref="R96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3353,7 +3353,7 @@
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
       <c r="P80" s="2">
-        <f t="shared" ref="P80:P94" si="18">O80-N80</f>
+        <f t="shared" ref="P80:P96" si="18">O80-N80</f>
         <v>0</v>
       </c>
       <c r="T80" s="2"/>
@@ -3771,11 +3771,49 @@
       <c r="E95" t="s">
         <v>113</v>
       </c>
+      <c r="N95" s="2">
+        <v>2.8472222222222222E-2</v>
+      </c>
+      <c r="O95" s="2">
+        <v>0.37083333333333335</v>
+      </c>
+      <c r="P95" s="2">
+        <f t="shared" si="18"/>
+        <v>0.34236111111111112</v>
+      </c>
+      <c r="Q95" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="96" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A96" s="1">
+        <v>42782</v>
+      </c>
+      <c r="B96" s="2">
+        <v>0.48819444444444443</v>
+      </c>
+      <c r="C96" s="2">
+        <v>0.78541666666666676</v>
+      </c>
       <c r="D96" s="2">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>0.29722222222222233</v>
+      </c>
+      <c r="E96" t="s">
+        <v>113</v>
+      </c>
+      <c r="N96" s="2">
+        <v>0</v>
+      </c>
+      <c r="O96" s="2">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="P96" s="2">
+        <f t="shared" si="18"/>
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="Q96" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="97" spans="4:4" x14ac:dyDescent="0.15">

--- a/时间管理.xlsx
+++ b/时间管理.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="115">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -94,10 +94,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>日语</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>斗地主</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -134,10 +130,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>睡觉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>完善产品分类；联系昊杰、精鹰刀具供应商，获取报价和画册；在Github上传(同步)文件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -158,10 +150,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>睡觉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>吃饭+休息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -202,10 +190,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>休息，吃饭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>住处-茶馆</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -230,9 +214,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>睡觉</t>
-  </si>
-  <si>
     <t>午饭</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -241,10 +222,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>看微博</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>练英语口语</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -257,10 +234,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>午饭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>三里屯吃饭，国贸天阶，大裤衩</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -353,128 +326,163 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>交日语三阶段学费；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上网买衣服</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搞卫生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他活动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>和高天鹏外出会见他的同事;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>了解LED灯参展商价格水平</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>了解完所有参展商价格水平</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进行产品组合，核算组合利润</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>做饭 吃饭 休息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组合产品，还没组合展示材料的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习X知识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>做饭 看欢乐颂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>住处-景山公园-住处</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>住处-地坛公园-住处</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吃饭 看欢乐颂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询北京去广州机票、火车票和酒店价格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看计算机概论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询加纳大使馆春节上班时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改E站产品价格，改为区间范围</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弄吃的，放松</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S住处-漫咖啡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>住处-北邮漫咖啡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北邮漫咖啡-工体漫咖啡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>住处-京仪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>见工作记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>住处-工体篮球公园</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外出打篮球</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看计算机是怎么跑起来的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与S通话关于电源报价修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改报价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>午睡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上日语课</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用膳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整理家务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>沃尔玛购物</t>
-  </si>
-  <si>
-    <t>交日语三阶段学费；</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>去市场备食材；</t>
-  </si>
-  <si>
-    <t>上网买衣服</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>搞卫生</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>其他活动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>和高天鹏外出会见他的同事;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>整理家务</t>
-  </si>
-  <si>
-    <t>学习</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>了解LED灯参展商价格水平</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>了解完所有参展商价格水平</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>进行产品组合，核算组合利润</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>做饭 吃饭 休息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>组合产品，还没组合展示材料的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上网买衣服</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>学习X知识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>做饭 看欢乐颂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>住处-景山公园-住处</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>住处-地坛公园-住处</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吃饭 看欢乐颂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查询北京去广州机票、火车票和酒店价格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>看计算机概论</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查询加纳大使馆春节上班时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改E站产品价格，改为区间范围</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>搞卫生</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>弄吃的，放松</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S住处-漫咖啡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>住处-北邮漫咖啡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>北邮漫咖啡-工体漫咖啡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>东四十条-住处</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>住处-京仪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>见工作记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>住处-蓝微</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝微-韦伯豪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>做+吃午饭</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -527,7 +535,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -549,8 +557,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -832,10 +843,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U106"/>
+  <dimension ref="A1:Y109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F80" workbookViewId="0">
-      <selection activeCell="R96" sqref="R96"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="A109" sqref="A109:XFD109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -844,79 +855,96 @@
     <col min="2" max="2" width="16.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="36.5" customWidth="1"/>
-    <col min="9" max="9" width="12.875" customWidth="1"/>
-    <col min="13" max="13" width="23.125" customWidth="1"/>
-    <col min="17" max="17" width="12.5" customWidth="1"/>
-    <col min="19" max="19" width="11.375" customWidth="1"/>
-    <col min="21" max="21" width="28" customWidth="1"/>
+    <col min="9" max="9" width="12.875" style="7" customWidth="1"/>
+    <col min="13" max="13" width="23.125" style="7" customWidth="1"/>
+    <col min="16" max="16" width="7.125" customWidth="1"/>
+    <col min="17" max="17" width="8" style="7" customWidth="1"/>
+    <col min="18" max="18" width="8.25" customWidth="1"/>
+    <col min="19" max="19" width="8.625" customWidth="1"/>
+    <col min="20" max="20" width="5" customWidth="1"/>
+    <col min="21" max="21" width="12.5" style="7" customWidth="1"/>
+    <col min="23" max="23" width="11.375" customWidth="1"/>
+    <col min="25" max="25" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="I1" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="J1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="Q1" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="R1" t="s">
+      <c r="Q1" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="R1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="U1" s="7" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" ht="27" x14ac:dyDescent="0.15">
+      <c r="U1" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="V1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="W1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="X1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y1" s="8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" ht="27" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>42733</v>
       </c>
@@ -933,24 +961,24 @@
       <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="N2" s="2">
+      <c r="R2" s="2">
         <v>0.55138888888888882</v>
       </c>
-      <c r="O2" s="2">
+      <c r="S2" s="2">
         <v>0.56597222222222221</v>
       </c>
-      <c r="P2" s="2">
-        <f>O2-N2</f>
+      <c r="T2" s="2">
+        <f>S2-R2</f>
         <v>1.4583333333333393E-2</v>
       </c>
-      <c r="Q2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="U2" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>42734</v>
       </c>
@@ -977,7 +1005,7 @@
         <f>G3-F3</f>
         <v>5.2083333333333259E-2</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="7" t="s">
         <v>10</v>
       </c>
       <c r="J3" s="2">
@@ -990,11 +1018,11 @@
         <f>K3-J3</f>
         <v>5.208333333333337E-2</v>
       </c>
-      <c r="M3" t="s">
+      <c r="M3" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="27" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:25" ht="27" x14ac:dyDescent="0.15">
       <c r="A4" s="1"/>
       <c r="B4" s="2">
         <v>0.41666666666666669</v>
@@ -1019,7 +1047,7 @@
         <f>G4-F4</f>
         <v>0.10416666666666663</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="7" t="s">
         <v>10</v>
       </c>
       <c r="J4" s="2">
@@ -1032,7 +1060,7 @@
         <f>K4-J4</f>
         <v>4.7916666666666718E-2</v>
       </c>
-      <c r="M4" t="s">
+      <c r="M4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="N4" s="2">
@@ -1040,7 +1068,7 @@
       </c>
       <c r="P4" s="2"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>42735</v>
       </c>
@@ -1067,7 +1095,7 @@
         <f>K5-J5</f>
         <v>2.7777777777777735E-2</v>
       </c>
-      <c r="M5" t="s">
+      <c r="M5" s="7" t="s">
         <v>13</v>
       </c>
       <c r="O5" s="2">
@@ -1077,11 +1105,11 @@
         <f>O5-N4</f>
         <v>0.36805555555555558</v>
       </c>
-      <c r="Q5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="Q5" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
       <c r="B6" s="2">
         <v>0.54861111111111105</v>
@@ -1106,30 +1134,30 @@
         <f t="shared" si="1"/>
         <v>3.125E-2</v>
       </c>
-      <c r="I6" t="s">
-        <v>17</v>
+      <c r="I6" s="7" t="s">
+        <v>10</v>
       </c>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
-      <c r="N6" s="2">
+      <c r="R6" s="2">
         <v>0.72222222222222221</v>
       </c>
-      <c r="O6" s="2">
+      <c r="S6" s="2">
         <v>0.79861111111111116</v>
       </c>
-      <c r="P6" s="2">
-        <f>O6-N6</f>
+      <c r="T6" s="2">
+        <f>S6-R6</f>
         <v>7.6388888888888951E-2</v>
       </c>
-      <c r="Q6" t="s">
-        <v>20</v>
-      </c>
-      <c r="R6" s="2">
+      <c r="U6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="V6" s="2">
         <v>0.875</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>42736</v>
       </c>
@@ -1144,7 +1172,7 @@
         <f t="shared" si="1"/>
         <v>0.13124999999999998</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L7" s="2"/>
@@ -1158,21 +1186,21 @@
         <f>O7-N7</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="Q7" t="s">
-        <v>19</v>
-      </c>
-      <c r="S7" s="5">
+      <c r="Q7" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="W7" s="5">
         <v>1</v>
       </c>
-      <c r="T7" s="2">
-        <f>S7-R6</f>
+      <c r="X7" s="2">
+        <f>W7-V6</f>
         <v>0.125</v>
       </c>
-      <c r="U7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="Y7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
       <c r="D8" s="2"/>
       <c r="F8" s="2">
@@ -1185,21 +1213,21 @@
         <f t="shared" ref="P8:P21" si="2">O8-N8</f>
         <v>0</v>
       </c>
-      <c r="R8" s="2">
+      <c r="V8" s="2">
         <v>0.56874999999999998</v>
       </c>
-      <c r="S8" s="4">
+      <c r="W8" s="4">
         <v>0.99305555555555547</v>
       </c>
-      <c r="T8" s="2">
-        <f>S8-R8</f>
+      <c r="X8" s="2">
+        <f>W8-V8</f>
         <v>0.42430555555555549</v>
       </c>
-      <c r="U8" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="Y8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A9" s="1"/>
       <c r="D9" s="2"/>
       <c r="F9" s="2"/>
@@ -1207,14 +1235,14 @@
       <c r="H9" s="2"/>
       <c r="L9" s="2"/>
       <c r="P9" s="2"/>
-      <c r="R9" s="2"/>
-      <c r="S9" s="4"/>
-      <c r="T9" s="2"/>
-      <c r="U9" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="V9" s="2"/>
+      <c r="W9" s="4"/>
+      <c r="X9" s="2"/>
+      <c r="Y9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>42737</v>
       </c>
@@ -1226,7 +1254,7 @@
         <f>G10-F8</f>
         <v>2.083333333333337E-2</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I10" s="7" t="s">
         <v>10</v>
       </c>
       <c r="J10" s="2">
@@ -1239,7 +1267,7 @@
         <f t="shared" ref="L10:L33" si="3">K10-J10</f>
         <v>3.125E-2</v>
       </c>
-      <c r="M10" t="s">
+      <c r="M10" s="7" t="s">
         <v>13</v>
       </c>
       <c r="N10" s="2">
@@ -1252,11 +1280,11 @@
         <f t="shared" si="2"/>
         <v>0.33124999999999999</v>
       </c>
-      <c r="Q10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="Q10" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A11" s="1"/>
       <c r="D11" s="2"/>
       <c r="F11" s="2">
@@ -1269,7 +1297,7 @@
         <f>G11-F11</f>
         <v>0.34722222222222227</v>
       </c>
-      <c r="I11" t="s">
+      <c r="I11" s="7" t="s">
         <v>10</v>
       </c>
       <c r="J11" s="2">
@@ -1282,14 +1310,14 @@
         <f t="shared" si="3"/>
         <v>2.9166666666666674E-2</v>
       </c>
-      <c r="M11" t="s">
-        <v>22</v>
+      <c r="M11" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>42738</v>
       </c>
@@ -1304,13 +1332,13 @@
         <v>9.6527777777777768E-2</v>
       </c>
       <c r="E12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H12" s="2"/>
       <c r="L12" s="2"/>
       <c r="P12" s="2"/>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A13" s="1"/>
       <c r="B13" s="2">
         <v>0.54166666666666663</v>
@@ -1323,13 +1351,13 @@
         <v>0.10416666666666674</v>
       </c>
       <c r="E13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H13" s="2"/>
       <c r="L13" s="2"/>
       <c r="P13" s="2"/>
     </row>
-    <row r="14" spans="1:21" ht="27" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:25" ht="27" x14ac:dyDescent="0.15">
       <c r="A14" s="1"/>
       <c r="B14" s="2">
         <v>0.77777777777777779</v>
@@ -1342,13 +1370,13 @@
         <v>4.1666666666666741E-2</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H14" s="2"/>
       <c r="L14" s="2"/>
       <c r="P14" s="2"/>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A15" s="1"/>
       <c r="B15" s="2">
         <v>0.9375</v>
@@ -1361,7 +1389,7 @@
         <v>9.0277777777777901E-2</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H15" s="2"/>
       <c r="L15" s="2"/>
@@ -1375,11 +1403,11 @@
         <f t="shared" si="2"/>
         <v>0.25</v>
       </c>
-      <c r="Q15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="Q15" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>42739</v>
       </c>
@@ -1394,7 +1422,7 @@
         <v>0.125</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H16" s="2"/>
       <c r="L16" s="2"/>
@@ -1403,32 +1431,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A17" s="1"/>
       <c r="B17" s="2">
         <v>0.57291666666666663</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H17" s="2"/>
       <c r="L17" s="2"/>
-      <c r="N17" s="2">
+      <c r="R17" s="2">
         <v>0.50694444444444442</v>
       </c>
-      <c r="O17" s="2">
+      <c r="S17" s="2">
         <v>0.5708333333333333</v>
       </c>
-      <c r="P17" s="2">
-        <f t="shared" si="2"/>
+      <c r="T17" s="2">
+        <f>S17-R17</f>
         <v>6.3888888888888884E-2</v>
       </c>
-      <c r="Q17" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" ht="27" x14ac:dyDescent="0.15">
+      <c r="U17" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" ht="27" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>42740</v>
       </c>
@@ -1443,7 +1471,7 @@
         <v>0.30486111111111114</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F18" s="2">
         <v>0.77083333333333337</v>
@@ -1455,8 +1483,8 @@
         <f t="shared" ref="H18:H23" si="5">G18-F18</f>
         <v>9.027777777777779E-2</v>
       </c>
-      <c r="I18" t="s">
-        <v>30</v>
+      <c r="I18" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="J18" s="2">
         <v>0.38472222222222219</v>
@@ -1468,12 +1496,12 @@
         <f t="shared" si="3"/>
         <v>5.2777777777777812E-2</v>
       </c>
-      <c r="M18" t="s">
-        <v>31</v>
+      <c r="M18" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="P18" s="2"/>
     </row>
-    <row r="19" spans="1:21" ht="27" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:25" ht="27" x14ac:dyDescent="0.15">
       <c r="A19" s="1"/>
       <c r="B19" s="2">
         <v>0.94444444444444453</v>
@@ -1483,7 +1511,7 @@
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -1493,7 +1521,7 @@
       <c r="L19" s="2"/>
       <c r="P19" s="2"/>
     </row>
-    <row r="20" spans="1:21" ht="27" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:25" ht="27" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>42741</v>
       </c>
@@ -1508,7 +1536,7 @@
         <v>0.52083333333333326</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H20" s="2"/>
       <c r="L20" s="2"/>
@@ -1522,11 +1550,11 @@
         <f t="shared" si="2"/>
         <v>0.27083333333333337</v>
       </c>
-      <c r="Q20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="Q20" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>42742</v>
       </c>
@@ -1541,8 +1569,8 @@
         <f t="shared" si="3"/>
         <v>0.4513888888888889</v>
       </c>
-      <c r="M21" t="s">
-        <v>37</v>
+      <c r="M21" s="7" t="s">
+        <v>34</v>
       </c>
       <c r="N21" s="2">
         <v>0</v>
@@ -1554,11 +1582,11 @@
         <f t="shared" si="2"/>
         <v>0.3125</v>
       </c>
-      <c r="Q21" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="Q21" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A22" s="1"/>
       <c r="H22" s="2"/>
       <c r="J22" s="2"/>
@@ -1568,7 +1596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>42743</v>
       </c>
@@ -1582,8 +1610,8 @@
         <f t="shared" si="5"/>
         <v>0.10416666666666674</v>
       </c>
-      <c r="I23" t="s">
-        <v>38</v>
+      <c r="I23" s="7" t="s">
+        <v>35</v>
       </c>
       <c r="L23" s="2"/>
       <c r="O23" s="2">
@@ -1593,24 +1621,24 @@
         <f>O23-N22</f>
         <v>0.3125</v>
       </c>
-      <c r="Q23" t="s">
-        <v>19</v>
-      </c>
-      <c r="R23" s="2">
+      <c r="Q23" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="V23" s="2">
         <v>0.72916666666666663</v>
       </c>
-      <c r="S23" s="2">
+      <c r="W23" s="2">
         <v>0.89583333333333337</v>
       </c>
-      <c r="T23" s="2">
-        <f>S23-R23</f>
+      <c r="X23" s="2">
+        <f>W23-V23</f>
         <v>0.16666666666666674</v>
       </c>
-      <c r="U23" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="Y23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A24" s="1"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
@@ -1620,11 +1648,11 @@
         <v>0.99305555555555547</v>
       </c>
       <c r="P24" s="2"/>
-      <c r="R24" s="2"/>
-      <c r="S24" s="2"/>
-      <c r="T24" s="2"/>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="V24" s="2"/>
+      <c r="W24" s="2"/>
+      <c r="X24" s="2"/>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
         <v>42744</v>
       </c>
@@ -1636,24 +1664,24 @@
         <v>0.3125</v>
       </c>
       <c r="P25" s="2"/>
-      <c r="Q25" t="s">
-        <v>19</v>
-      </c>
-      <c r="R25" s="2">
+      <c r="Q25" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="V25" s="2">
         <v>0.375</v>
       </c>
-      <c r="S25" s="2">
+      <c r="W25" s="2">
         <v>0.5</v>
       </c>
-      <c r="T25" s="2">
-        <f>S25-R25</f>
+      <c r="X25" s="2">
+        <f>W25-V25</f>
         <v>0.125</v>
       </c>
-      <c r="U25" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="Y25" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
         <v>42745</v>
       </c>
@@ -1668,18 +1696,18 @@
         <v>0.23055555555555562</v>
       </c>
       <c r="E26" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="K26" s="2">
         <v>6.8749999999999992E-2</v>
       </c>
       <c r="L26" s="2"/>
-      <c r="M26" t="s">
-        <v>41</v>
-      </c>
-      <c r="T26" s="2"/>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="M26" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="X26" s="2"/>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A27" s="1"/>
       <c r="D27" s="2"/>
       <c r="K27" s="2"/>
@@ -1694,12 +1722,12 @@
         <f>O27-N27</f>
         <v>0.20833333333333334</v>
       </c>
-      <c r="Q27" t="s">
-        <v>19</v>
-      </c>
-      <c r="T27" s="2"/>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="Q27" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="X27" s="2"/>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
         <v>42746</v>
       </c>
@@ -1714,7 +1742,7 @@
         <v>0.5</v>
       </c>
       <c r="E28" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F28" s="2">
         <v>0.47222222222222227</v>
@@ -1722,8 +1750,8 @@
       <c r="G28" s="2">
         <v>3.3333333333333333E-2</v>
       </c>
-      <c r="I28" t="s">
-        <v>43</v>
+      <c r="I28" s="7" t="s">
+        <v>40</v>
       </c>
       <c r="L28" s="2"/>
       <c r="N28" s="2">
@@ -1736,12 +1764,12 @@
         <f>O28-N28</f>
         <v>0.27777777777777773</v>
       </c>
-      <c r="Q28" t="s">
-        <v>19</v>
-      </c>
-      <c r="T28" s="2"/>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="Q28" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="X28" s="2"/>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A29" s="1"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -1749,22 +1777,22 @@
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="L29" s="2"/>
-      <c r="N29" s="2">
+      <c r="R29" s="2">
         <v>0.80763888888888891</v>
       </c>
-      <c r="O29" s="2">
+      <c r="S29" s="2">
         <v>0.84930555555555554</v>
       </c>
-      <c r="P29" s="2">
-        <f>O29-N29</f>
+      <c r="T29" s="2">
+        <f>S29-R29</f>
         <v>4.166666666666663E-2</v>
       </c>
-      <c r="Q29" t="s">
-        <v>44</v>
-      </c>
-      <c r="T29" s="2"/>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="U29" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="X29" s="2"/>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A30" s="1"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -1782,12 +1810,12 @@
         <f>O30-N30</f>
         <v>0.30902777777777779</v>
       </c>
-      <c r="Q30" t="s">
-        <v>19</v>
-      </c>
-      <c r="T30" s="2"/>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="Q30" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="X30" s="2"/>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A31" s="1">
         <v>42747</v>
       </c>
@@ -1802,7 +1830,7 @@
         <v>0.5</v>
       </c>
       <c r="E31" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J31" s="2">
         <v>0.39583333333333331</v>
@@ -1814,8 +1842,8 @@
         <f t="shared" si="3"/>
         <v>4.1666666666666685E-2</v>
       </c>
-      <c r="M31" t="s">
-        <v>45</v>
+      <c r="M31" s="7" t="s">
+        <v>41</v>
       </c>
       <c r="N31" s="2">
         <v>0.9916666666666667</v>
@@ -1824,12 +1852,12 @@
         <v>0.34722222222222227</v>
       </c>
       <c r="P31" s="2"/>
-      <c r="Q31" t="s">
-        <v>19</v>
-      </c>
-      <c r="T31" s="2"/>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="Q31" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="X31" s="2"/>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A32" s="1"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -1844,15 +1872,15 @@
         <f t="shared" si="3"/>
         <v>3.8194444444444531E-2</v>
       </c>
-      <c r="M32" t="s">
-        <v>46</v>
+      <c r="M32" s="7" t="s">
+        <v>42</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" s="2"/>
-      <c r="T32" s="2"/>
-    </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="X32" s="2"/>
+    </row>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A33" s="1"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -1867,15 +1895,15 @@
         <f t="shared" si="3"/>
         <v>9.722222222222221E-2</v>
       </c>
-      <c r="M33" t="s">
-        <v>47</v>
+      <c r="M33" s="7" t="s">
+        <v>43</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
       <c r="P33" s="2"/>
-      <c r="T33" s="2"/>
-    </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="X33" s="2"/>
+    </row>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A34" s="1">
         <v>42748</v>
       </c>
@@ -1890,24 +1918,24 @@
         <v>0.375</v>
       </c>
       <c r="E34" t="s">
-        <v>42</v>
-      </c>
-      <c r="N34" s="2">
+        <v>39</v>
+      </c>
+      <c r="R34" s="2">
         <v>0.52083333333333337</v>
       </c>
-      <c r="O34" s="2">
+      <c r="S34" s="2">
         <v>0.54861111111111105</v>
       </c>
-      <c r="P34" s="2">
-        <f t="shared" ref="P34:P36" si="7">O34-N34</f>
+      <c r="T34" s="2">
+        <f>S34-R34</f>
         <v>2.7777777777777679E-2</v>
       </c>
-      <c r="Q34" t="s">
-        <v>44</v>
-      </c>
-      <c r="T34" s="2"/>
-    </row>
-    <row r="35" spans="1:21" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="U34" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="X34" s="2"/>
+    </row>
+    <row r="35" spans="1:25" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A35" s="1"/>
       <c r="B35" s="2">
         <v>0.8618055555555556</v>
@@ -1920,14 +1948,14 @@
         <v>0.12430555555555556</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" s="2"/>
-      <c r="T35" s="2"/>
-    </row>
-    <row r="36" spans="1:21" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="X35" s="2"/>
+    </row>
+    <row r="36" spans="1:25" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A36" s="1">
         <v>42749</v>
       </c>
@@ -1942,7 +1970,7 @@
         <v>0.4375</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="N36" s="2">
         <v>0</v>
@@ -1951,38 +1979,38 @@
         <v>0.39583333333333331</v>
       </c>
       <c r="P36" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="P36" si="7">O36-N36</f>
         <v>0.39583333333333331</v>
       </c>
-      <c r="Q36" t="s">
-        <v>19</v>
-      </c>
-      <c r="T36" s="2"/>
-    </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="Q36" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="X36" s="2"/>
+    </row>
+    <row r="37" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A37" s="1"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="3"/>
-      <c r="N37" s="2">
+      <c r="R37" s="2">
         <v>0.43055555555555558</v>
       </c>
-      <c r="O37" s="2">
+      <c r="S37" s="2">
         <v>0.51388888888888895</v>
       </c>
-      <c r="P37" s="2">
-        <f t="shared" ref="P37" si="8">O37-N37</f>
+      <c r="T37" s="2">
+        <f t="shared" ref="T37" si="8">S37-R37</f>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="Q37" t="s">
-        <v>49</v>
-      </c>
-      <c r="R37" s="2"/>
-      <c r="S37" s="2"/>
-      <c r="T37" s="2"/>
-    </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="U37" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="V37" s="2"/>
+      <c r="W37" s="2"/>
+      <c r="X37" s="2"/>
+    </row>
+    <row r="38" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A38" s="1">
         <v>42750</v>
       </c>
@@ -1997,8 +2025,8 @@
         <f>G38-F38</f>
         <v>3.6111111111111205E-2</v>
       </c>
-      <c r="I38" t="s">
-        <v>55</v>
+      <c r="I38" s="7" t="s">
+        <v>49</v>
       </c>
       <c r="N38" s="2">
         <v>0</v>
@@ -2010,82 +2038,82 @@
         <f>O38-N38</f>
         <v>0.4513888888888889</v>
       </c>
-      <c r="Q38" t="s">
-        <v>51</v>
-      </c>
-      <c r="T38" s="2"/>
-    </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="Q38" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="X38" s="2"/>
+    </row>
+    <row r="39" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A39" s="1"/>
       <c r="D39" s="2"/>
-      <c r="N39" s="2">
+      <c r="R39" s="2">
         <v>0.45833333333333331</v>
       </c>
-      <c r="O39" s="2">
+      <c r="S39" s="2">
         <v>0.52083333333333337</v>
       </c>
-      <c r="P39" s="2">
-        <f t="shared" ref="P39:P44" si="9">O39-N39</f>
+      <c r="T39" s="2">
+        <f>S39-R39</f>
         <v>6.2500000000000056E-2</v>
       </c>
-      <c r="Q39" t="s">
-        <v>52</v>
-      </c>
-      <c r="R39" s="2">
+      <c r="U39" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="V39" s="2">
         <v>0.55555555555555558</v>
       </c>
-      <c r="S39" s="2">
+      <c r="W39" s="2">
         <v>0.64930555555555558</v>
       </c>
-      <c r="T39" s="2">
-        <f t="shared" ref="T39" si="10">S39-R39</f>
+      <c r="X39" s="2">
+        <f t="shared" ref="X39" si="9">W39-V39</f>
         <v>9.375E-2</v>
       </c>
-      <c r="U39" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="Y39" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A40" s="1"/>
       <c r="D40" s="2"/>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
       <c r="P40" s="2"/>
-      <c r="R40" s="2">
+      <c r="V40" s="2">
         <v>0.66666666666666663</v>
       </c>
-      <c r="S40" s="2">
+      <c r="W40" s="2">
         <v>0.79166666666666663</v>
       </c>
-      <c r="T40" s="2">
-        <f>S40-R40</f>
+      <c r="X40" s="2">
+        <f>W40-V40</f>
         <v>0.125</v>
       </c>
-      <c r="U40" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="41" spans="1:21" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="Y40" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A41" s="1"/>
       <c r="D41" s="2"/>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
       <c r="P41" s="2"/>
-      <c r="R41" s="2">
+      <c r="V41" s="2">
         <v>0.89583333333333337</v>
       </c>
-      <c r="S41" s="2">
+      <c r="W41" s="2">
         <v>0.99930555555555556</v>
       </c>
-      <c r="T41" s="2">
-        <f>S41-R41</f>
+      <c r="X41" s="2">
+        <f>W41-V41</f>
         <v>0.10347222222222219</v>
       </c>
-      <c r="U41" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="42" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y41" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="42" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="1">
         <v>42751</v>
       </c>
@@ -2100,7 +2128,7 @@
         <v>0.27083333333333326</v>
       </c>
       <c r="E42" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J42" s="2">
         <v>0.45416666666666666</v>
@@ -2112,8 +2140,8 @@
         <f>K42-J42</f>
         <v>3.8888888888888917E-2</v>
       </c>
-      <c r="M42" t="s">
-        <v>57</v>
+      <c r="M42" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="N42" s="2">
         <v>0</v>
@@ -2122,39 +2150,39 @@
         <v>0.375</v>
       </c>
       <c r="P42" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="P42:P44" si="10">O42-N42</f>
         <v>0.375</v>
       </c>
-      <c r="Q42" t="s">
-        <v>51</v>
-      </c>
-      <c r="T42" s="2"/>
-    </row>
-    <row r="43" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q42" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="X42" s="2"/>
+    </row>
+    <row r="43" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="1"/>
       <c r="D43" s="2"/>
       <c r="J43" s="2"/>
       <c r="K43" s="2"/>
       <c r="L43" s="2"/>
-      <c r="N43" s="2">
+      <c r="R43" s="2">
         <v>0.49652777777777773</v>
       </c>
-      <c r="O43" s="2">
+      <c r="S43" s="2">
         <v>0.51388888888888895</v>
       </c>
-      <c r="P43" s="2">
-        <f t="shared" si="9"/>
+      <c r="T43" s="2">
+        <f>S43-R43</f>
         <v>1.7361111111111216E-2</v>
       </c>
-      <c r="Q43" t="s">
-        <v>58</v>
-      </c>
-      <c r="T43" s="2">
-        <f t="shared" ref="T43:T44" si="11">S43-R43</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="U43" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="X43" s="2">
+        <f t="shared" ref="X43:X44" si="11">W43-V43</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A44" s="1">
         <v>42752</v>
       </c>
@@ -2166,7 +2194,7 @@
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J44" s="2">
         <v>0.4548611111111111</v>
@@ -2175,11 +2203,11 @@
         <v>0.5</v>
       </c>
       <c r="L44" s="2">
-        <f t="shared" ref="L44:L92" si="12">K44-J44</f>
+        <f t="shared" ref="L44:L107" si="12">K44-J44</f>
         <v>4.5138888888888895E-2</v>
       </c>
-      <c r="M44" t="s">
-        <v>57</v>
+      <c r="M44" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="N44" s="2">
         <v>0</v>
@@ -2188,27 +2216,27 @@
         <v>0.37083333333333335</v>
       </c>
       <c r="P44" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.37083333333333335</v>
       </c>
-      <c r="Q44" t="s">
-        <v>51</v>
-      </c>
-      <c r="R44" s="2">
+      <c r="Q44" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="V44" s="2">
         <v>0.77430555555555547</v>
       </c>
-      <c r="S44" s="2">
+      <c r="W44" s="2">
         <v>0.92361111111111116</v>
       </c>
-      <c r="T44" s="2">
+      <c r="X44" s="2">
         <f t="shared" si="11"/>
         <v>0.14930555555555569</v>
       </c>
-      <c r="U44" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="Y44" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="45" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A45" s="1"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -2223,17 +2251,17 @@
         <f t="shared" si="12"/>
         <v>4.1666666666666685E-2</v>
       </c>
-      <c r="M45" t="s">
-        <v>60</v>
+      <c r="M45" s="7" t="s">
+        <v>53</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
       <c r="P45" s="2"/>
-      <c r="R45" s="2"/>
-      <c r="S45" s="2"/>
-      <c r="T45" s="2"/>
-    </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="V45" s="2"/>
+      <c r="W45" s="2"/>
+      <c r="X45" s="2"/>
+    </row>
+    <row r="46" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A46" s="1">
         <v>42753</v>
       </c>
@@ -2248,7 +2276,7 @@
         <v>6.25E-2</v>
       </c>
       <c r="E46" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="J46" s="2">
         <v>0.44722222222222219</v>
@@ -2260,13 +2288,13 @@
         <f t="shared" si="12"/>
         <v>5.2777777777777812E-2</v>
       </c>
-      <c r="M46" t="s">
-        <v>57</v>
+      <c r="M46" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="P46" s="2"/>
-      <c r="T46" s="2"/>
-    </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="X46" s="2"/>
+    </row>
+    <row r="47" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A47" s="1"/>
       <c r="B47" s="2">
         <v>0.34861111111111115</v>
@@ -2279,7 +2307,7 @@
         <v>6.8055555555555536E-2</v>
       </c>
       <c r="E47" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="J47" s="2">
         <v>0.12847222222222224</v>
@@ -2291,37 +2319,37 @@
         <f t="shared" si="12"/>
         <v>2.4305555555555525E-2</v>
       </c>
-      <c r="M47" t="s">
-        <v>63</v>
-      </c>
-      <c r="N47" s="2">
+      <c r="M47" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="R47" s="2">
         <v>0.72916666666666663</v>
       </c>
-      <c r="O47" s="2">
+      <c r="S47" s="2">
         <v>0.84722222222222221</v>
-      </c>
-      <c r="P47" s="2">
-        <f>O47-N47</f>
-        <v>0.11805555555555558</v>
-      </c>
-      <c r="Q47" t="s">
-        <v>66</v>
-      </c>
-      <c r="R47" s="2">
-        <v>0.80208333333333337</v>
-      </c>
-      <c r="S47" s="2">
-        <v>0.83333333333333337</v>
       </c>
       <c r="T47" s="2">
         <f>S47-R47</f>
+        <v>0.11805555555555558</v>
+      </c>
+      <c r="U47" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="V47" s="2">
+        <v>0.80208333333333337</v>
+      </c>
+      <c r="W47" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="X47" s="2">
+        <f>W47-V47</f>
         <v>3.125E-2</v>
       </c>
-      <c r="U47" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="Y47" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="48" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A48" s="1"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -2336,13 +2364,13 @@
         <f t="shared" si="12"/>
         <v>3.4722222222222099E-2</v>
       </c>
-      <c r="M48" t="s">
-        <v>64</v>
+      <c r="M48" s="7" t="s">
+        <v>57</v>
       </c>
       <c r="P48" s="2"/>
-      <c r="T48" s="2"/>
-    </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="X48" s="2"/>
+    </row>
+    <row r="49" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A49" s="1">
         <v>42754</v>
       </c>
@@ -2357,25 +2385,25 @@
         <f t="shared" si="12"/>
         <v>2.777777777777779E-2</v>
       </c>
-      <c r="M49" t="s">
-        <v>67</v>
+      <c r="M49" s="7" t="s">
+        <v>60</v>
       </c>
       <c r="P49" s="2"/>
-      <c r="R49" s="2">
+      <c r="V49" s="2">
         <v>0.4375</v>
       </c>
-      <c r="S49" s="2">
+      <c r="W49" s="2">
         <v>0.67708333333333337</v>
       </c>
-      <c r="T49" s="2">
-        <f t="shared" ref="T49" si="13">S49-R49</f>
+      <c r="X49" s="2">
+        <f t="shared" ref="X49" si="13">W49-V49</f>
         <v>0.23958333333333337</v>
       </c>
-      <c r="U49" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="Y49" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="50" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A50" s="1"/>
       <c r="D50" s="2"/>
       <c r="J50" s="2">
@@ -2388,15 +2416,15 @@
         <f t="shared" si="12"/>
         <v>5.2083333333333315E-2</v>
       </c>
-      <c r="M50" t="s">
-        <v>69</v>
+      <c r="M50" s="7" t="s">
+        <v>62</v>
       </c>
       <c r="P50" s="2"/>
-      <c r="R50" s="2"/>
-      <c r="S50" s="2"/>
-      <c r="T50" s="2"/>
-    </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="V50" s="2"/>
+      <c r="W50" s="2"/>
+      <c r="X50" s="2"/>
+    </row>
+    <row r="51" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A51" s="1"/>
       <c r="D51" s="2"/>
       <c r="J51" s="2">
@@ -2409,15 +2437,15 @@
         <f t="shared" si="12"/>
         <v>4.513888888888884E-2</v>
       </c>
-      <c r="M51" t="s">
-        <v>70</v>
+      <c r="M51" s="7" t="s">
+        <v>63</v>
       </c>
       <c r="P51" s="2"/>
-      <c r="R51" s="2"/>
-      <c r="S51" s="2"/>
-      <c r="T51" s="2"/>
-    </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="V51" s="2"/>
+      <c r="W51" s="2"/>
+      <c r="X51" s="2"/>
+    </row>
+    <row r="52" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A52" s="1"/>
       <c r="D52" s="2"/>
       <c r="J52" s="2">
@@ -2430,16 +2458,16 @@
         <f t="shared" si="12"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="M52" t="s">
-        <v>71</v>
+      <c r="M52" s="7" t="s">
+        <v>64</v>
       </c>
       <c r="N52" s="2"/>
       <c r="P52" s="2"/>
-      <c r="R52" s="2"/>
-      <c r="S52" s="2"/>
-      <c r="T52" s="2"/>
-    </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="V52" s="2"/>
+      <c r="W52" s="2"/>
+      <c r="X52" s="2"/>
+    </row>
+    <row r="53" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A53" s="1">
         <v>42755</v>
       </c>
@@ -2454,7 +2482,7 @@
         <v>0.3125</v>
       </c>
       <c r="E53" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="L53" s="2"/>
       <c r="N53" s="2">
@@ -2467,11 +2495,11 @@
         <f t="shared" ref="P53" si="14">O53-N53</f>
         <v>0.34722222222222227</v>
       </c>
-      <c r="Q53" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="Q53" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="54" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A54" s="1"/>
       <c r="D54" s="2"/>
       <c r="L54" s="2"/>
@@ -2481,7 +2509,7 @@
       <c r="O54" s="2"/>
       <c r="P54" s="2"/>
     </row>
-    <row r="55" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="1">
         <v>42756</v>
       </c>
@@ -2496,7 +2524,7 @@
         <v>0.12152777777777779</v>
       </c>
       <c r="E55" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="J55" s="2">
         <v>0.38125000000000003</v>
@@ -2508,30 +2536,30 @@
         <f t="shared" si="12"/>
         <v>0.13958333333333334</v>
       </c>
-      <c r="M55" t="s">
-        <v>74</v>
+      <c r="M55" s="7" t="s">
+        <v>67</v>
       </c>
       <c r="O55" s="2">
         <v>0.34722222222222227</v>
       </c>
-      <c r="Q55" t="s">
-        <v>51</v>
-      </c>
-      <c r="R55" s="2">
+      <c r="Q55" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="V55" s="2">
         <v>0.38125000000000003</v>
       </c>
-      <c r="S55" s="2">
+      <c r="W55" s="2">
         <v>0.52083333333333337</v>
       </c>
-      <c r="T55" s="2">
-        <f t="shared" ref="T55:T74" si="15">S55-R55</f>
+      <c r="X55" s="2">
+        <f t="shared" ref="X55:X74" si="15">W55-V55</f>
         <v>0.13958333333333334</v>
       </c>
-      <c r="U55" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="Y55" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="56" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A56" s="1">
         <v>42757</v>
       </c>
@@ -2546,7 +2574,7 @@
         <v>0.48888888888888887</v>
       </c>
       <c r="E56" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="L56" s="2"/>
       <c r="N56" s="2">
@@ -2559,36 +2587,36 @@
         <f>O56-N56</f>
         <v>0.32986111111111116</v>
       </c>
-      <c r="Q56" t="s">
-        <v>51</v>
-      </c>
-      <c r="T56" s="2"/>
-      <c r="U56" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="Q56" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="X56" s="2"/>
+      <c r="Y56" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="57" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A57" s="1"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
       <c r="L57" s="2"/>
-      <c r="N57" s="2">
+      <c r="R57" s="2">
         <v>0.77083333333333337</v>
       </c>
-      <c r="O57" s="2">
+      <c r="S57" s="2">
         <v>0.81597222222222221</v>
       </c>
-      <c r="P57" s="2">
-        <f>O57-N57</f>
+      <c r="T57" s="2">
+        <f>S57-R57</f>
         <v>4.513888888888884E-2</v>
       </c>
-      <c r="Q57" t="s">
-        <v>75</v>
-      </c>
-      <c r="T57" s="2"/>
-    </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="U57" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="X57" s="2"/>
+    </row>
+    <row r="58" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A58" s="1">
         <v>42758</v>
       </c>
@@ -2603,7 +2631,7 @@
         <v>0.11111111111111105</v>
       </c>
       <c r="E58" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="J58" s="2">
         <v>0.4548611111111111</v>
@@ -2615,13 +2643,13 @@
         <f t="shared" si="12"/>
         <v>4.3750000000000011E-2</v>
       </c>
-      <c r="M58" t="s">
-        <v>57</v>
+      <c r="M58" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="P58" s="2"/>
-      <c r="T58" s="2"/>
-    </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="X58" s="2"/>
+    </row>
+    <row r="59" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A59" s="1"/>
       <c r="B59" s="2">
         <v>0.875</v>
@@ -2634,7 +2662,7 @@
         <v>7.291666666666663E-2</v>
       </c>
       <c r="E59" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="J59" s="2">
         <v>0.78472222222222221</v>
@@ -2646,15 +2674,15 @@
         <f t="shared" si="12"/>
         <v>3.4722222222222321E-2</v>
       </c>
-      <c r="M59" t="s">
-        <v>79</v>
+      <c r="M59" s="7" t="s">
+        <v>72</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
       <c r="P59" s="2"/>
-      <c r="T59" s="2"/>
-    </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="X59" s="2"/>
+    </row>
+    <row r="60" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A60" s="1">
         <v>42759</v>
       </c>
@@ -2669,8 +2697,8 @@
         <f t="shared" si="12"/>
         <v>0.125</v>
       </c>
-      <c r="M60" t="s">
-        <v>80</v>
+      <c r="M60" s="7" t="s">
+        <v>73</v>
       </c>
       <c r="N60" s="2">
         <v>2.1527777777777781E-2</v>
@@ -2682,24 +2710,24 @@
         <f t="shared" ref="P60:P73" si="16">O60-N60</f>
         <v>0.33888888888888891</v>
       </c>
-      <c r="Q60" t="s">
-        <v>51</v>
-      </c>
-      <c r="R60" s="2">
+      <c r="Q60" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="V60" s="2">
         <v>0.4069444444444445</v>
       </c>
-      <c r="S60" s="2">
+      <c r="W60" s="2">
         <v>0.5</v>
       </c>
-      <c r="T60" s="2">
+      <c r="X60" s="2">
         <f t="shared" si="15"/>
         <v>9.3055555555555503E-2</v>
       </c>
-      <c r="U60" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="Y60" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="61" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A61" s="1"/>
       <c r="D61" s="2"/>
       <c r="J61" s="2"/>
@@ -2711,21 +2739,21 @@
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
       <c r="P61" s="2"/>
-      <c r="R61" s="2">
+      <c r="V61" s="2">
         <v>0.50347222222222221</v>
       </c>
-      <c r="S61" s="2">
+      <c r="W61" s="2">
         <v>0.52430555555555558</v>
       </c>
-      <c r="T61" s="2">
+      <c r="X61" s="2">
         <f t="shared" si="15"/>
         <v>2.083333333333337E-2</v>
       </c>
-      <c r="U61" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="Y61" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="62" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A62" s="1"/>
       <c r="D62" s="2"/>
       <c r="J62" s="2"/>
@@ -2737,21 +2765,21 @@
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
       <c r="P62" s="2"/>
-      <c r="R62" s="2">
+      <c r="V62" s="2">
         <v>0.58333333333333337</v>
       </c>
-      <c r="S62" s="2">
+      <c r="W62" s="2">
         <v>0.7416666666666667</v>
       </c>
-      <c r="T62" s="2">
+      <c r="X62" s="2">
         <f t="shared" si="15"/>
         <v>0.15833333333333333</v>
       </c>
-      <c r="U62" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="Y62" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="63" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A63" s="1"/>
       <c r="D63" s="2"/>
       <c r="J63" s="2"/>
@@ -2763,21 +2791,21 @@
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
       <c r="P63" s="2"/>
-      <c r="R63" s="2">
+      <c r="V63" s="2">
         <v>0.79166666666666663</v>
       </c>
-      <c r="S63" s="2">
+      <c r="W63" s="2">
         <v>0.85416666666666663</v>
       </c>
-      <c r="T63" s="2">
+      <c r="X63" s="2">
         <f t="shared" si="15"/>
         <v>6.25E-2</v>
       </c>
-      <c r="U63" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="Y63" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="64" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A64" s="1">
         <v>42760</v>
       </c>
@@ -2792,7 +2820,7 @@
         <v>0.34375000000000011</v>
       </c>
       <c r="E64" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="L64" s="2">
         <f t="shared" si="12"/>
@@ -2808,24 +2836,24 @@
         <f t="shared" si="16"/>
         <v>0.35416666666666669</v>
       </c>
-      <c r="Q64" t="s">
-        <v>51</v>
-      </c>
-      <c r="R64" s="2">
+      <c r="Q64" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="V64" s="2">
         <v>0.78472222222222221</v>
       </c>
-      <c r="S64" s="2">
+      <c r="W64" s="2">
         <v>0.95833333333333337</v>
       </c>
-      <c r="T64" s="2">
+      <c r="X64" s="2">
         <f t="shared" si="15"/>
         <v>0.17361111111111116</v>
       </c>
-      <c r="U64" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="Y64" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="65" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A65" s="1">
         <v>42761</v>
       </c>
@@ -2840,7 +2868,7 @@
         <v>0.39027777777777778</v>
       </c>
       <c r="E65" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="L65" s="2">
         <f t="shared" si="12"/>
@@ -2856,24 +2884,24 @@
         <f t="shared" si="16"/>
         <v>0.38194444444444442</v>
       </c>
-      <c r="Q65" t="s">
-        <v>51</v>
-      </c>
-      <c r="R65" s="2">
+      <c r="Q65" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="V65" s="2">
         <v>0.87152777777777779</v>
       </c>
-      <c r="S65" s="2">
+      <c r="W65" s="2">
         <v>0.95833333333333337</v>
       </c>
-      <c r="T65" s="2">
+      <c r="X65" s="2">
         <f t="shared" si="15"/>
         <v>8.680555555555558E-2</v>
       </c>
-      <c r="U65" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="Y65" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="66" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A66" s="1">
         <v>42762</v>
       </c>
@@ -2886,21 +2914,21 @@
         <v>0</v>
       </c>
       <c r="P66" s="2"/>
-      <c r="R66" s="2">
+      <c r="V66" s="2">
         <v>0.72916666666666663</v>
       </c>
-      <c r="S66" s="2">
+      <c r="W66" s="2">
         <v>0.83333333333333337</v>
       </c>
-      <c r="T66" s="2">
+      <c r="X66" s="2">
         <f t="shared" si="15"/>
         <v>0.10416666666666674</v>
       </c>
-      <c r="U66" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="Y66" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="67" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A67" s="1">
         <v>42763</v>
       </c>
@@ -2909,7 +2937,7 @@
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="L67" s="2">
         <f t="shared" si="12"/>
@@ -2925,15 +2953,15 @@
         <f t="shared" si="16"/>
         <v>0.2361111111111111</v>
       </c>
-      <c r="Q67" t="s">
-        <v>51</v>
-      </c>
-      <c r="T67" s="2">
+      <c r="Q67" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="X67" s="2">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A68" s="1">
         <v>42764</v>
       </c>
@@ -2948,7 +2976,7 @@
         <v>0.32361111111111107</v>
       </c>
       <c r="E68" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="L68" s="2">
         <f t="shared" si="12"/>
@@ -2964,15 +2992,15 @@
         <f t="shared" si="16"/>
         <v>0.37083333333333329</v>
       </c>
-      <c r="Q68" t="s">
-        <v>51</v>
-      </c>
-      <c r="T68" s="2">
+      <c r="Q68" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="X68" s="2">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A69" s="1">
         <v>42765</v>
       </c>
@@ -2986,8 +3014,8 @@
         <f t="shared" si="12"/>
         <v>0.18402777777777779</v>
       </c>
-      <c r="M69" t="s">
-        <v>100</v>
+      <c r="M69" s="7" t="s">
+        <v>89</v>
       </c>
       <c r="N69" s="2">
         <v>5.0694444444444452E-2</v>
@@ -2999,15 +3027,15 @@
         <f t="shared" si="16"/>
         <v>0.40069444444444446</v>
       </c>
-      <c r="Q69" t="s">
-        <v>51</v>
-      </c>
-      <c r="T69" s="2">
+      <c r="Q69" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="X69" s="2">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A70" s="1">
         <v>42766</v>
       </c>
@@ -3021,8 +3049,8 @@
         <f t="shared" si="12"/>
         <v>0.13888888888888895</v>
       </c>
-      <c r="M70" t="s">
-        <v>99</v>
+      <c r="M70" s="7" t="s">
+        <v>88</v>
       </c>
       <c r="N70" s="2">
         <v>6.805555555555555E-2</v>
@@ -3034,15 +3062,15 @@
         <f t="shared" si="16"/>
         <v>0.40416666666666673</v>
       </c>
-      <c r="Q70" t="s">
-        <v>51</v>
-      </c>
-      <c r="T70" s="2">
+      <c r="Q70" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="X70" s="2">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A71" s="1">
         <v>42767</v>
       </c>
@@ -3056,8 +3084,8 @@
         <f>G71-F71</f>
         <v>0.27777777777777779</v>
       </c>
-      <c r="I71" t="s">
-        <v>97</v>
+      <c r="I71" s="7" t="s">
+        <v>86</v>
       </c>
       <c r="L71" s="2">
         <f t="shared" si="12"/>
@@ -3073,24 +3101,24 @@
         <f t="shared" si="16"/>
         <v>0.47916666666666674</v>
       </c>
-      <c r="Q71" t="s">
-        <v>51</v>
-      </c>
-      <c r="R71" s="2">
+      <c r="Q71" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="V71" s="2">
         <v>0.52083333333333337</v>
       </c>
-      <c r="S71" s="2">
+      <c r="W71" s="2">
         <v>0.70138888888888884</v>
       </c>
-      <c r="T71" s="2">
+      <c r="X71" s="2">
         <f t="shared" si="15"/>
         <v>0.18055555555555547</v>
       </c>
-      <c r="U71" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="Y71" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="72" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A72" s="1">
         <v>42768</v>
       </c>
@@ -3108,24 +3136,24 @@
         <f>O72-N72</f>
         <v>0.41180555555555559</v>
       </c>
-      <c r="Q72" t="s">
-        <v>51</v>
-      </c>
-      <c r="R72" s="2">
+      <c r="Q72" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="V72" s="2">
         <v>0.47916666666666669</v>
       </c>
-      <c r="S72" s="2">
+      <c r="W72" s="2">
         <v>0.58680555555555558</v>
       </c>
-      <c r="T72" s="2">
-        <f>S72-R72</f>
+      <c r="X72" s="2">
+        <f>W72-V72</f>
         <v>0.1076388888888889</v>
       </c>
-      <c r="U72" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="Y72" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="73" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A73" s="1"/>
       <c r="L73" s="2">
         <f t="shared" si="12"/>
@@ -3137,41 +3165,41 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="R73" s="2">
+      <c r="V73" s="2">
         <v>0.58680555555555558</v>
       </c>
-      <c r="S73" s="2">
+      <c r="W73" s="2">
         <v>0.70138888888888884</v>
       </c>
-      <c r="T73" s="2">
-        <f>S73-R73</f>
+      <c r="X73" s="2">
+        <f>W73-V73</f>
         <v>0.11458333333333326</v>
       </c>
-      <c r="U73" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="Y73" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="74" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A74" s="1"/>
       <c r="L74" s="2">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="R74" s="2">
+      <c r="V74" s="2">
         <v>0.70138888888888884</v>
       </c>
-      <c r="S74" s="2">
+      <c r="W74" s="2">
         <v>0.73611111111111116</v>
       </c>
-      <c r="T74" s="2">
+      <c r="X74" s="2">
         <f t="shared" si="15"/>
         <v>3.4722222222222321E-2</v>
       </c>
-      <c r="U74" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="Y74" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="75" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A75" s="1">
         <v>42769</v>
       </c>
@@ -3186,7 +3214,7 @@
         <v>0.13263888888888886</v>
       </c>
       <c r="E75" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="F75" s="2">
         <v>0.6645833333333333</v>
@@ -3205,24 +3233,24 @@
         <f>O75-N75</f>
         <v>0.42847222222222225</v>
       </c>
-      <c r="Q75" t="s">
-        <v>51</v>
-      </c>
-      <c r="T75" s="2"/>
-    </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="Q75" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="X75" s="2"/>
+    </row>
+    <row r="76" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A76" s="1">
         <v>42770</v>
       </c>
       <c r="D76" s="2">
-        <f t="shared" ref="D76:D106" si="17">C76-B76</f>
+        <f t="shared" ref="D76:D109" si="17">C76-B76</f>
         <v>0</v>
       </c>
       <c r="G76" s="2">
         <v>7.0833333333333331E-2</v>
       </c>
-      <c r="I76" t="s">
-        <v>103</v>
+      <c r="I76" s="7" t="s">
+        <v>92</v>
       </c>
       <c r="L76" s="2">
         <f t="shared" si="12"/>
@@ -3238,12 +3266,12 @@
         <f>O76-N76</f>
         <v>0.36597222222222214</v>
       </c>
-      <c r="Q76" t="s">
-        <v>51</v>
-      </c>
-      <c r="T76" s="2"/>
-    </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="Q76" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="X76" s="2"/>
+    </row>
+    <row r="77" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A77" s="1"/>
       <c r="D77" s="2">
         <f t="shared" si="17"/>
@@ -3257,9 +3285,9 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="T77" s="2"/>
-    </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="X77" s="2"/>
+    </row>
+    <row r="78" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A78" s="1">
         <v>42771</v>
       </c>
@@ -3274,13 +3302,13 @@
         <v>5.6944444444444464E-2</v>
       </c>
       <c r="E78" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="G78" s="2">
         <v>1.9444444444444445E-2</v>
       </c>
-      <c r="I78" t="s">
-        <v>103</v>
+      <c r="I78" s="7" t="s">
+        <v>92</v>
       </c>
       <c r="L78" s="2">
         <f t="shared" si="12"/>
@@ -3296,12 +3324,12 @@
         <f>O78-N78</f>
         <v>0.37986111111111115</v>
       </c>
-      <c r="Q78" t="s">
-        <v>51</v>
-      </c>
-      <c r="T78" s="2"/>
-    </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="Q78" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="X78" s="2"/>
+    </row>
+    <row r="79" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A79" s="1">
         <v>42772</v>
       </c>
@@ -3316,8 +3344,8 @@
         <f>G79-F79</f>
         <v>0.16319444444444442</v>
       </c>
-      <c r="I79" t="s">
-        <v>103</v>
+      <c r="I79" s="7" t="s">
+        <v>92</v>
       </c>
       <c r="L79" s="2">
         <f t="shared" si="12"/>
@@ -3333,12 +3361,12 @@
         <f>O79-N79</f>
         <v>0.34652777777777782</v>
       </c>
-      <c r="Q79" t="s">
-        <v>51</v>
-      </c>
-      <c r="T79" s="2"/>
-    </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="Q79" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="X79" s="2"/>
+    </row>
+    <row r="80" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A80" s="1"/>
       <c r="D80" s="2"/>
       <c r="F80" s="2">
@@ -3353,12 +3381,12 @@
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
       <c r="P80" s="2">
-        <f t="shared" ref="P80:P96" si="18">O80-N80</f>
-        <v>0</v>
-      </c>
-      <c r="T80" s="2"/>
-    </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.15">
+        <f t="shared" ref="P80:P109" si="18">O80-N80</f>
+        <v>0</v>
+      </c>
+      <c r="X80" s="2"/>
+    </row>
+    <row r="81" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A81" s="1">
         <v>42773</v>
       </c>
@@ -3367,8 +3395,8 @@
         <v>6.25E-2</v>
       </c>
       <c r="H81" s="2"/>
-      <c r="I81" t="s">
-        <v>103</v>
+      <c r="I81" s="7" t="s">
+        <v>92</v>
       </c>
       <c r="L81" s="2">
         <f t="shared" si="12"/>
@@ -3384,12 +3412,12 @@
         <f t="shared" si="18"/>
         <v>0.33680555555555558</v>
       </c>
-      <c r="Q81" t="s">
-        <v>51</v>
-      </c>
-      <c r="T81" s="2"/>
-    </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="Q81" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="X81" s="2"/>
+    </row>
+    <row r="82" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A82" s="1"/>
       <c r="D82" s="2"/>
       <c r="F82" s="2">
@@ -3404,9 +3432,9 @@
       <c r="N82" s="2"/>
       <c r="O82" s="2"/>
       <c r="P82" s="2"/>
-      <c r="T82" s="2"/>
-    </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="X82" s="2"/>
+    </row>
+    <row r="83" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A83" s="1">
         <v>42774</v>
       </c>
@@ -3415,8 +3443,8 @@
         <v>4.3055555555555562E-2</v>
       </c>
       <c r="H83" s="2"/>
-      <c r="I83" t="s">
-        <v>103</v>
+      <c r="I83" s="7" t="s">
+        <v>92</v>
       </c>
       <c r="J83" s="2">
         <v>0.35416666666666669</v>
@@ -3428,8 +3456,8 @@
         <f t="shared" si="12"/>
         <v>5.555555555555558E-2</v>
       </c>
-      <c r="M83" t="s">
-        <v>57</v>
+      <c r="M83" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="N83" s="2">
         <v>4.3055555555555562E-2</v>
@@ -3441,12 +3469,12 @@
         <f t="shared" si="18"/>
         <v>0.24861111111111112</v>
       </c>
-      <c r="Q83" t="s">
-        <v>51</v>
-      </c>
-      <c r="T83" s="2"/>
-    </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="Q83" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="X83" s="2"/>
+    </row>
+    <row r="84" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A84" s="1"/>
       <c r="D84" s="2"/>
       <c r="G84" s="2"/>
@@ -3461,8 +3489,8 @@
         <f t="shared" si="12"/>
         <v>1.7361111111111049E-2</v>
       </c>
-      <c r="M84" t="s">
-        <v>108</v>
+      <c r="M84" s="7" t="s">
+        <v>96</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" s="2"/>
@@ -3470,9 +3498,9 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="T84" s="2"/>
-    </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="X84" s="2"/>
+    </row>
+    <row r="85" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A85" s="1">
         <v>42775</v>
       </c>
@@ -3490,11 +3518,11 @@
         <f t="shared" si="18"/>
         <v>0.3263888888888889</v>
       </c>
-      <c r="Q85" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="Q85" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="86" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A86" s="1">
         <v>42776</v>
       </c>
@@ -3508,12 +3536,12 @@
         <f t="shared" si="12"/>
         <v>4.861111111111116E-2</v>
       </c>
-      <c r="M86" t="s">
-        <v>109</v>
+      <c r="M86" s="7" t="s">
+        <v>97</v>
       </c>
       <c r="P86" s="2"/>
     </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A87" s="1"/>
       <c r="J87" s="2">
         <v>0.4513888888888889</v>
@@ -3525,12 +3553,12 @@
         <f t="shared" si="12"/>
         <v>9.0277777777777735E-2</v>
       </c>
-      <c r="M87" t="s">
-        <v>110</v>
+      <c r="M87" s="7" t="s">
+        <v>98</v>
       </c>
       <c r="P87" s="2"/>
     </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A88" s="1"/>
       <c r="F88" s="2"/>
       <c r="G88" s="2"/>
@@ -3544,8 +3572,8 @@
         <f t="shared" si="12"/>
         <v>4.7916666666666829E-2</v>
       </c>
-      <c r="M88" t="s">
-        <v>111</v>
+      <c r="M88" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="N88" s="2">
         <v>4.1666666666666664E-2</v>
@@ -3557,11 +3585,11 @@
         <f t="shared" si="18"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="Q88" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="Q88" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="89" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A89" s="1">
         <v>42777</v>
       </c>
@@ -3576,7 +3604,7 @@
         <v>8.5416666666666585E-2</v>
       </c>
       <c r="E89" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="F89" s="2">
         <v>0.66666666666666663</v>
@@ -3588,8 +3616,8 @@
         <f>G89-F89</f>
         <v>0.16666666666666674</v>
       </c>
-      <c r="I89" t="s">
-        <v>103</v>
+      <c r="I89" s="7" t="s">
+        <v>92</v>
       </c>
       <c r="L89" s="2">
         <f t="shared" si="12"/>
@@ -3599,21 +3627,21 @@
         <v>0.96944444444444444</v>
       </c>
       <c r="P89" s="2"/>
-      <c r="R89" s="2">
+      <c r="V89" s="2">
         <v>0.5</v>
       </c>
-      <c r="S89" s="2">
+      <c r="W89" s="2">
         <v>0.58333333333333337</v>
       </c>
-      <c r="T89" s="2">
-        <f>S89-R89</f>
+      <c r="X89" s="2">
+        <f>W89-V89</f>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="U89" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="Y89" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="90" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A90" s="1">
         <v>42778</v>
       </c>
@@ -3632,8 +3660,8 @@
         <f>G90-F90</f>
         <v>0.17986111111111114</v>
       </c>
-      <c r="I90" t="s">
-        <v>103</v>
+      <c r="I90" s="7" t="s">
+        <v>92</v>
       </c>
       <c r="L90" s="2">
         <f t="shared" si="12"/>
@@ -3643,24 +3671,24 @@
         <v>0.33680555555555558</v>
       </c>
       <c r="P90" s="2"/>
-      <c r="Q90" t="s">
-        <v>51</v>
-      </c>
-      <c r="R90" s="2">
+      <c r="Q90" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="V90" s="2">
         <v>0.58333333333333337</v>
       </c>
-      <c r="S90" s="2">
+      <c r="W90" s="2">
         <v>0.64583333333333337</v>
       </c>
-      <c r="T90" s="2">
-        <f>S90-R90</f>
+      <c r="X90" s="2">
+        <f>W90-V90</f>
         <v>6.25E-2</v>
       </c>
-      <c r="U90" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="Y90" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="91" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A91" s="1"/>
       <c r="B91" s="2"/>
       <c r="D91" s="2"/>
@@ -3673,11 +3701,11 @@
       </c>
       <c r="O91" s="2"/>
       <c r="P91" s="2"/>
-      <c r="R91" s="2"/>
-      <c r="S91" s="2"/>
-      <c r="T91" s="2"/>
-    </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="V91" s="2"/>
+      <c r="W91" s="2"/>
+      <c r="X91" s="2"/>
+    </row>
+    <row r="92" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A92" s="1">
         <v>42779</v>
       </c>
@@ -3692,7 +3720,7 @@
         <v>0.375</v>
       </c>
       <c r="E92" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="J92" s="2">
         <v>0.39374999999999999</v>
@@ -3704,26 +3732,31 @@
         <f t="shared" si="12"/>
         <v>0.13333333333333336</v>
       </c>
-      <c r="M92" t="s">
-        <v>112</v>
+      <c r="M92" s="7" t="s">
+        <v>99</v>
       </c>
       <c r="O92" s="2">
         <v>0.32916666666666666</v>
       </c>
       <c r="P92" s="2"/>
-      <c r="Q92" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="Q92" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="X92" s="2"/>
+    </row>
+    <row r="93" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A93" s="1"/>
       <c r="D93" s="2"/>
       <c r="J93" s="2"/>
       <c r="K93" s="2"/>
-      <c r="L93" s="2"/>
+      <c r="L93" s="2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
       <c r="P93" s="2"/>
-    </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="X93" s="2"/>
+    </row>
+    <row r="94" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A94" s="1">
         <v>42780</v>
       </c>
@@ -3738,7 +3771,11 @@
         <v>0.25</v>
       </c>
       <c r="E94" t="s">
-        <v>113</v>
+        <v>100</v>
+      </c>
+      <c r="L94" s="2">
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="N94" s="2">
         <v>5.2083333333333336E-2</v>
@@ -3750,11 +3787,12 @@
         <f t="shared" si="18"/>
         <v>0.30555555555555558</v>
       </c>
-      <c r="Q94" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="Q94" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="X94" s="2"/>
+    </row>
+    <row r="95" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A95" s="1">
         <v>42781</v>
       </c>
@@ -3769,7 +3807,11 @@
         <v>0.42361111111111122</v>
       </c>
       <c r="E95" t="s">
-        <v>113</v>
+        <v>100</v>
+      </c>
+      <c r="L95" s="2">
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="N95" s="2">
         <v>2.8472222222222222E-2</v>
@@ -3781,11 +3823,12 @@
         <f t="shared" si="18"/>
         <v>0.34236111111111112</v>
       </c>
-      <c r="Q95" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="Q95" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="X95" s="2"/>
+    </row>
+    <row r="96" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A96" s="1">
         <v>42782</v>
       </c>
@@ -3800,7 +3843,11 @@
         <v>0.29722222222222233</v>
       </c>
       <c r="E96" t="s">
-        <v>113</v>
+        <v>100</v>
+      </c>
+      <c r="L96" s="2">
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="N96" s="2">
         <v>0</v>
@@ -3812,68 +3859,474 @@
         <f t="shared" si="18"/>
         <v>0.35416666666666669</v>
       </c>
-      <c r="Q96" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="97" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D97" s="2">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="Q96" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="X96" s="2"/>
+    </row>
+    <row r="97" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A97" s="1"/>
+      <c r="B97" s="2"/>
+      <c r="C97" s="2"/>
+      <c r="D97" s="2"/>
+      <c r="L97" s="2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="N97" s="2">
+        <v>0.9916666666666667</v>
+      </c>
+      <c r="O97" s="2">
+        <v>0.3354166666666667</v>
+      </c>
+      <c r="P97" s="2"/>
+      <c r="Q97" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="X97" s="2"/>
+    </row>
+    <row r="98" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A98" s="1">
+        <v>42783</v>
+      </c>
+      <c r="B98" s="2">
+        <v>0.48541666666666666</v>
+      </c>
+      <c r="C98" s="2">
+        <v>0.78819444444444453</v>
+      </c>
       <c r="D98" s="2">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="4:4" x14ac:dyDescent="0.15">
+        <v>0.30277777777777787</v>
+      </c>
+      <c r="E98" t="s">
+        <v>100</v>
+      </c>
+      <c r="L98" s="2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P98" s="2"/>
+      <c r="X98" s="2"/>
+    </row>
+    <row r="99" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A99" s="1">
+        <v>42784</v>
+      </c>
+      <c r="B99" s="2">
+        <v>0.3666666666666667</v>
+      </c>
+      <c r="C99" s="2">
+        <v>0.5805555555555556</v>
+      </c>
       <c r="D99" s="2">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D100" s="2">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="4:4" x14ac:dyDescent="0.15">
+        <v>0.21388888888888891</v>
+      </c>
+      <c r="E99" t="s">
+        <v>100</v>
+      </c>
+      <c r="J99" s="2">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="K99" s="2">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="L99" s="2">
+        <f t="shared" si="12"/>
+        <v>4.1666666666666741E-2</v>
+      </c>
+      <c r="M99" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="N99" s="2">
+        <v>2.4999999999999998E-2</v>
+      </c>
+      <c r="O99" s="2">
+        <v>0.35486111111111113</v>
+      </c>
+      <c r="P99" s="2">
+        <f t="shared" si="18"/>
+        <v>0.3298611111111111</v>
+      </c>
+      <c r="Q99" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="V99" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="W99" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="X99" s="2">
+        <f t="shared" ref="X99:X102" si="19">W99-V99</f>
+        <v>0.25</v>
+      </c>
+      <c r="Y99" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="100" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A100" s="1"/>
+      <c r="B100" s="2"/>
+      <c r="C100" s="2"/>
+      <c r="D100" s="2"/>
+      <c r="F100" s="2">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="J100" s="2"/>
+      <c r="K100" s="2"/>
+      <c r="L100" s="2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="N100" s="2"/>
+      <c r="O100" s="2"/>
+      <c r="P100" s="2"/>
+      <c r="V100" s="2"/>
+      <c r="W100" s="2"/>
+      <c r="X100" s="2">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:25" ht="27" x14ac:dyDescent="0.15">
+      <c r="A101" s="1">
+        <v>42785</v>
+      </c>
+      <c r="B101" s="2">
+        <v>2.7083333333333334E-2</v>
+      </c>
+      <c r="C101" s="2">
+        <v>5.5555555555555552E-2</v>
+      </c>
       <c r="D101" s="2">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="4:4" x14ac:dyDescent="0.15">
+        <v>2.8472222222222218E-2</v>
+      </c>
+      <c r="E101" t="s">
+        <v>104</v>
+      </c>
+      <c r="G101" s="2">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="I101" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="L101" s="2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="N101" s="2">
+        <v>4.5138888888888888E-2</v>
+      </c>
+      <c r="O101" s="2">
+        <v>0.38680555555555557</v>
+      </c>
+      <c r="P101" s="2">
+        <f t="shared" si="18"/>
+        <v>0.34166666666666667</v>
+      </c>
+      <c r="Q101" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="X101" s="2">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="B102" s="2">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="C102" s="2">
+        <v>0.52430555555555558</v>
+      </c>
       <c r="D102" s="2">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="4:4" x14ac:dyDescent="0.15">
+        <v>0.12847222222222227</v>
+      </c>
+      <c r="E102" t="s">
+        <v>105</v>
+      </c>
+      <c r="L102" s="2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P102" s="2">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="V102" s="2">
+        <v>0.62222222222222223</v>
+      </c>
+      <c r="W102" s="2">
+        <v>0.69791666666666663</v>
+      </c>
+      <c r="X102" s="2">
+        <f t="shared" si="19"/>
+        <v>7.5694444444444398E-2</v>
+      </c>
+      <c r="Y102" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="103" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="B103" s="2">
+        <v>0.83333333333333337</v>
+      </c>
       <c r="D103" s="2">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="4:4" x14ac:dyDescent="0.15">
+        <v>-0.83333333333333337</v>
+      </c>
+      <c r="L103" s="2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P103" s="2">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A104" s="1">
+        <v>42786</v>
+      </c>
+      <c r="B104" s="2">
+        <v>0.3520833333333333</v>
+      </c>
+      <c r="C104" s="2">
+        <v>0.66666666666666663</v>
+      </c>
       <c r="D104" s="2">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="4:4" x14ac:dyDescent="0.15">
+        <v>0.31458333333333333</v>
+      </c>
+      <c r="E104" t="s">
+        <v>100</v>
+      </c>
+      <c r="F104" s="2">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="G104" s="2">
+        <v>0.875</v>
+      </c>
+      <c r="H104" s="2">
+        <f>G104-F104</f>
+        <v>0.10416666666666663</v>
+      </c>
+      <c r="I104" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="J104" s="2">
+        <v>0.71180555555555547</v>
+      </c>
+      <c r="K104" s="2">
+        <v>0.76388888888888884</v>
+      </c>
+      <c r="L104" s="2">
+        <f t="shared" si="12"/>
+        <v>5.208333333333337E-2</v>
+      </c>
+      <c r="M104" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P104" s="2">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A105" s="1">
+        <v>42787</v>
+      </c>
+      <c r="B105" s="2">
+        <v>0.3840277777777778</v>
+      </c>
+      <c r="C105" s="2">
+        <v>0.53749999999999998</v>
+      </c>
       <c r="D105" s="2">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="4:4" x14ac:dyDescent="0.15">
+        <v>0.15347222222222218</v>
+      </c>
+      <c r="E105" t="s">
+        <v>100</v>
+      </c>
+      <c r="L105" s="2"/>
+      <c r="N105" s="2">
+        <v>2.7083333333333334E-2</v>
+      </c>
+      <c r="O105" s="2">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="P105" s="2">
+        <f t="shared" si="18"/>
+        <v>0.32013888888888892</v>
+      </c>
+      <c r="Q105" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="R105" s="2">
+        <v>0.53749999999999998</v>
+      </c>
+      <c r="S105" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="T105" s="2">
+        <f>S105-R105</f>
+        <v>4.5833333333333393E-2</v>
+      </c>
+      <c r="U105" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="106" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="B106" s="2">
+        <v>0.58680555555555558</v>
+      </c>
+      <c r="C106" s="2">
+        <v>0.82638888888888884</v>
+      </c>
       <c r="D106" s="2">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>0.23958333333333326</v>
+      </c>
+      <c r="E106" t="s">
+        <v>100</v>
+      </c>
+      <c r="L106" s="2"/>
+      <c r="P106" s="2">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="T106" s="2">
+        <f t="shared" ref="T106:T107" si="20">S106-R106</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A107" s="1">
+        <v>42788</v>
+      </c>
+      <c r="B107" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C107" s="2">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D107" s="2">
+        <f t="shared" si="17"/>
+        <v>0.20833333333333337</v>
+      </c>
+      <c r="E107" t="s">
+        <v>100</v>
+      </c>
+      <c r="F107" s="2">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="G107" s="2">
+        <v>0.875</v>
+      </c>
+      <c r="H107" s="2">
+        <f>G107-F107</f>
+        <v>0.10416666666666663</v>
+      </c>
+      <c r="I107" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="J107" s="2">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="K107" s="2">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="L107" s="2">
+        <f t="shared" si="12"/>
+        <v>5.208333333333337E-2</v>
+      </c>
+      <c r="M107" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="N107" s="2">
+        <v>0</v>
+      </c>
+      <c r="O107" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="P107" s="2">
+        <f t="shared" si="18"/>
+        <v>0.3125</v>
+      </c>
+      <c r="Q107" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="R107" s="2">
+        <v>0.46319444444444446</v>
+      </c>
+      <c r="S107" s="2">
+        <v>0.49583333333333335</v>
+      </c>
+      <c r="T107" s="2">
+        <f t="shared" si="20"/>
+        <v>3.2638888888888884E-2</v>
+      </c>
+      <c r="U107" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="108" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="D108" s="2">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="J108" s="2">
+        <v>0.73611111111111116</v>
+      </c>
+      <c r="K108" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="L108" s="2">
+        <f t="shared" ref="L108" si="21">K108-J108</f>
+        <v>1.388888888888884E-2</v>
+      </c>
+      <c r="M108" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="P108" s="2">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A109" s="1">
+        <v>42789</v>
+      </c>
+      <c r="B109" s="2">
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="C109" s="2">
+        <v>0.77569444444444446</v>
+      </c>
+      <c r="D109" s="2">
+        <f t="shared" si="17"/>
+        <v>0.22013888888888888</v>
+      </c>
+      <c r="E109" t="s">
+        <v>100</v>
+      </c>
+      <c r="N109" s="2">
+        <v>0</v>
+      </c>
+      <c r="O109" s="2">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="P109" s="2">
+        <f t="shared" si="18"/>
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="Q109" s="7" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
